--- a/Outputs/3. Prosumer percentage/Output Files/60/Output_18_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/60/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1886210.561598402</v>
+        <v>1875927.6490612</v>
       </c>
     </row>
     <row r="7">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>226.3501492950522</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="H11" t="n">
         <v>235.4157285475924</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U11" t="n">
-        <v>128.5181048030393</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>300.5019102226756</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>68.29489152150131</v>
       </c>
       <c r="F12" t="n">
-        <v>56.40035359697936</v>
+        <v>56.40035359697968</v>
       </c>
       <c r="G12" t="n">
-        <v>51.09828471220879</v>
+        <v>51.09828471220878</v>
       </c>
       <c r="H12" t="n">
-        <v>11.22244430040397</v>
+        <v>11.22244430040396</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.5688040456684</v>
+        <v>41.24512281696354</v>
       </c>
       <c r="C13" t="n">
-        <v>59.61745943429904</v>
+        <v>101.7159322959508</v>
       </c>
       <c r="D13" t="n">
         <v>87.28964750779056</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>79.87807784015254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>40.424921208493</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S13" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>163.0864650778911</v>
@@ -1590,7 +1590,7 @@
         <v>196.5324172686642</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>323.4140627900583</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12.96449976068626</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>323.4140627900583</v>
       </c>
       <c r="F14" t="n">
-        <v>323.4140627900583</v>
+        <v>284.8631065054832</v>
       </c>
       <c r="G14" t="n">
         <v>323.4140627900583</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>82.36055367678887</v>
       </c>
       <c r="D15" t="n">
-        <v>62.0009432460143</v>
+        <v>62.00094324601463</v>
       </c>
       <c r="E15" t="n">
         <v>68.29489152150131</v>
@@ -1700,10 +1700,10 @@
         <v>56.40035359697968</v>
       </c>
       <c r="G15" t="n">
-        <v>51.09828471220879</v>
+        <v>51.09828471220878</v>
       </c>
       <c r="H15" t="n">
-        <v>11.22244430040397</v>
+        <v>11.22244430040396</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>48.70631724095898</v>
+        <v>48.70631724095892</v>
       </c>
       <c r="T15" t="n">
         <v>104.5017395264941</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5688040456684</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.7159322959508</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>87.28964750779056</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>87.21608956066967</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>98.96797721037781</v>
+        <v>98.9679772103778</v>
       </c>
       <c r="H16" t="n">
         <v>79.87807784015254</v>
       </c>
       <c r="I16" t="n">
-        <v>40.31597580509462</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S16" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>163.0864650778911</v>
+        <v>51.21462158458455</v>
       </c>
       <c r="U16" t="n">
         <v>215.7527383803918</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>196.5324172686642</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X16" t="n">
         <v>164.9523845361269</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>293.4775862587626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>314.7995830367791</v>
+        <v>284.8631065054833</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="F17" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>68.29489152150131</v>
       </c>
       <c r="F18" t="n">
-        <v>56.40035359697936</v>
+        <v>56.40035359697968</v>
       </c>
       <c r="G18" t="n">
-        <v>51.09828471220879</v>
+        <v>51.09828471220878</v>
       </c>
       <c r="H18" t="n">
-        <v>11.22244430040397</v>
+        <v>11.22244430040411</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>116.5688040456684</v>
       </c>
       <c r="C19" t="n">
-        <v>30.40871586469839</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>87.21608956066967</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>46.68771398443408</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.0864650778911</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>215.7527383803918</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="C20" t="n">
-        <v>322.4566120233789</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="G20" t="n">
-        <v>13.92195052736568</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>284.8631065054833</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>56.40035359697968</v>
       </c>
       <c r="G21" t="n">
-        <v>51.09828471220878</v>
+        <v>51.09828471220845</v>
       </c>
       <c r="H21" t="n">
-        <v>11.22244430040396</v>
+        <v>11.22244430040397</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>48.70631724095898</v>
       </c>
       <c r="T21" t="n">
-        <v>104.5017395264941</v>
+        <v>104.5017395264944</v>
       </c>
       <c r="U21" t="n">
         <v>141.1113116019297</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.5688040456684</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.02695416001521</v>
+        <v>87.21608956066967</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>40.59497416070456</v>
       </c>
       <c r="G22" t="n">
-        <v>98.96797721037781</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>79.87807784015254</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.424921208493</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S22" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>163.0864650778911</v>
@@ -2301,10 +2301,10 @@
         <v>196.5324172686642</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>164.9523845361269</v>
       </c>
       <c r="Y22" t="n">
         <v>154.0938061128032</v>
@@ -2323,10 +2323,10 @@
         <v>322.4566120233789</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>226.4309237079769</v>
       </c>
       <c r="F23" t="n">
         <v>345.9383596266022</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>36.19709657842797</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>186.262465608774</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>325.738667529885</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>115.4934516996788</v>
+        <v>115.4934516996793</v>
       </c>
       <c r="T24" t="n">
         <v>171.2888739852139</v>
@@ -2490,7 +2490,7 @@
         <v>88.96554098043694</v>
       </c>
       <c r="G25" t="n">
-        <v>98.96797721037781</v>
+        <v>98.9679772103778</v>
       </c>
       <c r="H25" t="n">
         <v>79.87807784015254</v>
@@ -2557,19 +2557,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>260.0866324534136</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.2111004287077</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>236.2172592241911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047351</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -2715,7 +2715,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>59.974498377602</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.7551116690976</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>186.5602680299208</v>
       </c>
       <c r="T28" t="n">
-        <v>229.873599536611</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>124.0929862451157</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2794,19 +2794,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>323.269416161968</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>314.2283736267713</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.2111004287077</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.3745422102061</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.2984259116172</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7551116690976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>107.2120556672128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.95359064771259</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>186.5602680299208</v>
@@ -3006,19 +3006,19 @@
         <v>229.873599536611</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5398728391116</v>
+        <v>136.1183812147778</v>
       </c>
       <c r="V31" t="n">
-        <v>164.0235526145635</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>332.1782498157061</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>254.9027771048394</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G32" t="n">
         <v>350.1456037623151</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.30904554381358</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T32" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>195.9841034011013</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>126.5004119692377</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W32" t="n">
         <v>310.2235480150028</v>
       </c>
       <c r="X32" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>111.4375700882781</v>
       </c>
       <c r="D34" t="n">
-        <v>97.01128530011785</v>
+        <v>97.01128530011783</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93772735299696</v>
+        <v>96.93772735299694</v>
       </c>
       <c r="F34" t="n">
-        <v>98.68717877276423</v>
+        <v>98.68717877276421</v>
       </c>
       <c r="G34" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H34" t="n">
-        <v>89.59971563248006</v>
+        <v>89.59971563247981</v>
       </c>
       <c r="I34" t="n">
-        <v>50.14655900082029</v>
+        <v>50.14655900082028</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.88809398132007</v>
+        <v>28.88809398132003</v>
       </c>
       <c r="S34" t="n">
-        <v>129.4947713635282</v>
+        <v>129.4947713635281</v>
       </c>
       <c r="T34" t="n">
         <v>172.8081028702184</v>
       </c>
       <c r="U34" t="n">
-        <v>225.4743761727185</v>
+        <v>225.4743761727191</v>
       </c>
       <c r="V34" t="n">
         <v>206.2540550609914</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>355.6599974189294</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>350.1456037623151</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.486128230877241</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>195.9841034011013</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>45.37804790376188</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.21287443015918</v>
+        <v>93.21287443015916</v>
       </c>
       <c r="C36" t="n">
-        <v>92.08219146911615</v>
+        <v>92.08219146911614</v>
       </c>
       <c r="D36" t="n">
-        <v>71.72258103834191</v>
+        <v>71.7225810383419</v>
       </c>
       <c r="E36" t="n">
-        <v>78.0165293138286</v>
+        <v>78.01652931382858</v>
       </c>
       <c r="F36" t="n">
-        <v>66.12199138930697</v>
+        <v>66.12199138930696</v>
       </c>
       <c r="G36" t="n">
-        <v>60.81992250453607</v>
+        <v>60.81992250453605</v>
       </c>
       <c r="H36" t="n">
-        <v>20.94408209273126</v>
+        <v>20.94408209273172</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.42795503328627</v>
+        <v>58.42795503328625</v>
       </c>
       <c r="T36" t="n">
-        <v>114.2233773188214</v>
+        <v>114.2233773188213</v>
       </c>
       <c r="U36" t="n">
         <v>150.8329493942569</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91688447540065</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.68717877276423</v>
+        <v>98.68717877276421</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.14655900082029</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T37" t="n">
         <v>172.8081028702184</v>
       </c>
       <c r="U37" t="n">
-        <v>225.4743761727191</v>
+        <v>222.043048285412</v>
       </c>
       <c r="V37" t="n">
         <v>206.2540550609914</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>339.4243015878903</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.62413308376527</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.721637792327286</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.30904554381358</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T38" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>195.9841034011013</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6202445371242</v>
+        <v>125.5378857633419</v>
       </c>
       <c r="W38" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>328.4925823498812</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.21287443015918</v>
+        <v>93.21287443015916</v>
       </c>
       <c r="C39" t="n">
-        <v>92.08219146911615</v>
+        <v>92.08219146911614</v>
       </c>
       <c r="D39" t="n">
-        <v>71.72258103834191</v>
+        <v>71.7225810383419</v>
       </c>
       <c r="E39" t="n">
-        <v>78.0165293138286</v>
+        <v>78.01652931382858</v>
       </c>
       <c r="F39" t="n">
-        <v>66.12199138930697</v>
+        <v>66.12199138930696</v>
       </c>
       <c r="G39" t="n">
-        <v>60.81992250453607</v>
+        <v>60.81992250453606</v>
       </c>
       <c r="H39" t="n">
-        <v>20.94408209273126</v>
+        <v>20.94408209273124</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.42795503328627</v>
+        <v>58.42795503328625</v>
       </c>
       <c r="T39" t="n">
-        <v>114.2233773188214</v>
+        <v>114.2233773188213</v>
       </c>
       <c r="U39" t="n">
         <v>150.8329493942569</v>
@@ -3666,22 +3666,22 @@
         <v>111.4375700882781</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.01128530011783</v>
       </c>
       <c r="E40" t="n">
-        <v>96.93772735299696</v>
+        <v>96.93772735299694</v>
       </c>
       <c r="F40" t="n">
-        <v>98.68717877276423</v>
+        <v>98.68717877276421</v>
       </c>
       <c r="G40" t="n">
-        <v>108.6896150027051</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>89.59971563247983</v>
+        <v>89.59971563247981</v>
       </c>
       <c r="I40" t="n">
-        <v>50.14655900082029</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T40" t="n">
-        <v>105.0597375090131</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>225.4743761727191</v>
       </c>
       <c r="V40" t="n">
-        <v>206.2540550609914</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.4316013817416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>174.6740223284542</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>68.79303224868814</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>63.30981387915047</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>77.60748669325376</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>328.4925823498812</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.21287443015918</v>
+        <v>93.21287443015916</v>
       </c>
       <c r="C42" t="n">
-        <v>92.08219146911615</v>
+        <v>92.08219146911614</v>
       </c>
       <c r="D42" t="n">
-        <v>71.72258103834191</v>
+        <v>71.7225810383419</v>
       </c>
       <c r="E42" t="n">
-        <v>78.0165293138286</v>
+        <v>78.01652931382858</v>
       </c>
       <c r="F42" t="n">
-        <v>66.12199138930697</v>
+        <v>66.12199138930696</v>
       </c>
       <c r="G42" t="n">
-        <v>60.81992250453607</v>
+        <v>60.81992250453606</v>
       </c>
       <c r="H42" t="n">
-        <v>20.94408209273125</v>
+        <v>20.94408209273124</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.42795503328627</v>
+        <v>58.42795503328664</v>
       </c>
       <c r="T42" t="n">
-        <v>114.2233773188214</v>
+        <v>114.2233773188213</v>
       </c>
       <c r="U42" t="n">
-        <v>150.832949394257</v>
+        <v>150.8329493942569</v>
       </c>
       <c r="V42" t="n">
         <v>163.2491049462511</v>
@@ -3900,25 +3900,25 @@
         <v>126.2904418379957</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D43" t="n">
-        <v>97.01128530011785</v>
+        <v>17.82672196860424</v>
       </c>
       <c r="E43" t="n">
-        <v>96.93772735299696</v>
+        <v>96.93772735299694</v>
       </c>
       <c r="F43" t="n">
-        <v>98.68717877276423</v>
+        <v>98.68717877276421</v>
       </c>
       <c r="G43" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H43" t="n">
-        <v>89.59971563247983</v>
+        <v>89.59971563247981</v>
       </c>
       <c r="I43" t="n">
-        <v>50.14655900082029</v>
+        <v>50.14655900082028</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.88809398132003</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>129.4947713635282</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U43" t="n">
         <v>225.4743761727191</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.498993317208321</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>174.6740223284542</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>163.8154439051305</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>355.6599974189294</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>145.4160568247839</v>
       </c>
       <c r="H44" t="n">
-        <v>76.97548372174612</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.721637792327272</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>195.9841034011013</v>
       </c>
       <c r="V44" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.21287443015918</v>
+        <v>93.21287443015916</v>
       </c>
       <c r="C45" t="n">
-        <v>92.08219146911615</v>
+        <v>92.08219146911614</v>
       </c>
       <c r="D45" t="n">
-        <v>71.72258103834191</v>
+        <v>71.7225810383419</v>
       </c>
       <c r="E45" t="n">
-        <v>78.0165293138286</v>
+        <v>78.01652931382858</v>
       </c>
       <c r="F45" t="n">
-        <v>66.12199138930697</v>
+        <v>66.12199138930696</v>
       </c>
       <c r="G45" t="n">
-        <v>60.81992250453607</v>
+        <v>60.81992250453606</v>
       </c>
       <c r="H45" t="n">
-        <v>20.94408209273126</v>
+        <v>20.94408209273124</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.42795503328627</v>
+        <v>58.42795503328625</v>
       </c>
       <c r="T45" t="n">
-        <v>114.2233773188214</v>
+        <v>114.2233773188213</v>
       </c>
       <c r="U45" t="n">
         <v>150.8329493942569</v>
@@ -4121,7 +4121,7 @@
         <v>170.7505767416534</v>
       </c>
       <c r="X45" t="n">
-        <v>130.3485102070959</v>
+        <v>130.3485102070962</v>
       </c>
       <c r="Y45" t="n">
         <v>120.4555780888553</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.01128530011785</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>48.91304004303786</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.68717877276423</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.59971563247981</v>
       </c>
       <c r="I46" t="n">
-        <v>50.14655900082029</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.88809398132003</v>
+        <v>28.88809398132002</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U46" t="n">
         <v>225.4743761727191</v>
@@ -4203,7 +4203,7 @@
         <v>174.6740223284542</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>31.89387017408291</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.666790222793</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="C11" t="n">
-        <v>263.666790222793</v>
+        <v>917.028533233012</v>
       </c>
       <c r="D11" t="n">
-        <v>263.666790222793</v>
+        <v>917.028533233012</v>
       </c>
       <c r="E11" t="n">
-        <v>263.666790222793</v>
+        <v>917.028533233012</v>
       </c>
       <c r="F11" t="n">
-        <v>263.666790222793</v>
+        <v>590.3476617279025</v>
       </c>
       <c r="G11" t="n">
         <v>263.666790222793</v>
       </c>
       <c r="H11" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I11" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J11" t="n">
-        <v>62.29792126503641</v>
+        <v>323.4507337367871</v>
       </c>
       <c r="K11" t="n">
-        <v>149.8692855370706</v>
+        <v>411.0220980088213</v>
       </c>
       <c r="L11" t="n">
-        <v>406.3025553721333</v>
+        <v>543.6482641856674</v>
       </c>
       <c r="M11" t="n">
-        <v>726.4824775342911</v>
+        <v>711.8055627224869</v>
       </c>
       <c r="N11" t="n">
-        <v>900.3597124107209</v>
+        <v>885.6827975989167</v>
       </c>
       <c r="O11" t="n">
-        <v>1055.879134915802</v>
+        <v>1041.202220103998</v>
       </c>
       <c r="P11" t="n">
-        <v>1166.185713396564</v>
+        <v>1151.50879858476</v>
       </c>
       <c r="Q11" t="n">
-        <v>1217.709074717603</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R11" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S11" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="T11" t="n">
-        <v>1293.656251160233</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="U11" t="n">
-        <v>1163.839983682416</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="V11" t="n">
-        <v>889.194926364439</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="W11" t="n">
-        <v>585.6576433112314</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="X11" t="n">
-        <v>263.666790222793</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="Y11" t="n">
-        <v>263.666790222793</v>
+        <v>1145.665047672459</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360.5978432594642</v>
+        <v>360.5978432594645</v>
       </c>
       <c r="C12" t="n">
-        <v>277.4053647980613</v>
+        <v>277.4053647980616</v>
       </c>
       <c r="D12" t="n">
-        <v>214.7781493980465</v>
+        <v>214.7781493980468</v>
       </c>
       <c r="E12" t="n">
-        <v>145.7934104874391</v>
+        <v>145.7934104874394</v>
       </c>
       <c r="F12" t="n">
         <v>88.82335634907614</v>
@@ -5114,40 +5114,40 @@
         <v>37.20892734684504</v>
       </c>
       <c r="H12" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I12" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J12" t="n">
         <v>230.0708785876864</v>
       </c>
       <c r="K12" t="n">
-        <v>297.0448762862445</v>
+        <v>549.5710751204271</v>
       </c>
       <c r="L12" t="n">
-        <v>417.2093330474737</v>
+        <v>669.7355318816562</v>
       </c>
       <c r="M12" t="n">
-        <v>570.0175506085375</v>
+        <v>822.54374944272</v>
       </c>
       <c r="N12" t="n">
-        <v>736.2357661886359</v>
+        <v>988.7619650228185</v>
       </c>
       <c r="O12" t="n">
-        <v>873.8500932010118</v>
+        <v>1126.376292035194</v>
       </c>
       <c r="P12" t="n">
-        <v>971.7312298636916</v>
+        <v>1224.257428697874</v>
       </c>
       <c r="Q12" t="n">
         <v>1257.240898739075</v>
       </c>
       <c r="R12" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S12" t="n">
-        <v>1244.45795091684</v>
+        <v>1244.457950916841</v>
       </c>
       <c r="T12" t="n">
         <v>1138.900638263816</v>
@@ -5156,16 +5156,16 @@
         <v>996.3639598780285</v>
       </c>
       <c r="V12" t="n">
-        <v>841.2857102276004</v>
+        <v>841.2857102276005</v>
       </c>
       <c r="W12" t="n">
-        <v>678.6302163393921</v>
+        <v>678.6302163393923</v>
       </c>
       <c r="X12" t="n">
-        <v>556.7848906679086</v>
+        <v>556.7848906679088</v>
       </c>
       <c r="Y12" t="n">
-        <v>444.9324257219207</v>
+        <v>444.932425721921</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>473.743565964459</v>
+        <v>435.5823488144583</v>
       </c>
       <c r="C13" t="n">
-        <v>413.5239099702176</v>
+        <v>332.8389828589524</v>
       </c>
       <c r="D13" t="n">
-        <v>325.3525488512372</v>
+        <v>244.667621739972</v>
       </c>
       <c r="E13" t="n">
-        <v>237.2554886889446</v>
+        <v>156.5705615776794</v>
       </c>
       <c r="F13" t="n">
-        <v>147.3913058804224</v>
+        <v>66.70637876915721</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3913058804224</v>
+        <v>66.70637876915721</v>
       </c>
       <c r="H13" t="n">
-        <v>66.7063787691572</v>
+        <v>66.70637876915721</v>
       </c>
       <c r="I13" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J13" t="n">
-        <v>25.87312502320466</v>
+        <v>53.24178608550899</v>
       </c>
       <c r="K13" t="n">
-        <v>36.7556160562103</v>
+        <v>228.979349861196</v>
       </c>
       <c r="L13" t="n">
-        <v>321.0461554351429</v>
+        <v>262.3439601793519</v>
       </c>
       <c r="M13" t="n">
-        <v>421.1088021614418</v>
+        <v>575.3304679640514</v>
       </c>
       <c r="N13" t="n">
-        <v>727.9808433939413</v>
+        <v>882.2025091965509</v>
       </c>
       <c r="O13" t="n">
-        <v>1004.926332063741</v>
+        <v>1159.14799786635</v>
       </c>
       <c r="P13" t="n">
-        <v>1222.555170887664</v>
+        <v>1222.555170887665</v>
       </c>
       <c r="Q13" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R13" t="n">
-        <v>1293.656251160233</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="S13" t="n">
-        <v>1172.673287957</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.939484848019</v>
+        <v>1109.562391294694</v>
       </c>
       <c r="U13" t="n">
-        <v>790.0074258779263</v>
+        <v>891.6303323246017</v>
       </c>
       <c r="V13" t="n">
-        <v>591.4898326772554</v>
+        <v>693.1127391239309</v>
       </c>
       <c r="W13" t="n">
-        <v>591.4898326772554</v>
+        <v>477.2440890336134</v>
       </c>
       <c r="X13" t="n">
-        <v>591.4898326772554</v>
+        <v>477.2440890336134</v>
       </c>
       <c r="Y13" t="n">
-        <v>591.4898326772554</v>
+        <v>477.2440890336134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1019.011193842256</v>
+        <v>966.9753796551238</v>
       </c>
       <c r="C14" t="n">
-        <v>1019.011193842256</v>
+        <v>966.9753796551238</v>
       </c>
       <c r="D14" t="n">
-        <v>1005.915739538533</v>
+        <v>966.9753796551238</v>
       </c>
       <c r="E14" t="n">
-        <v>679.2348680334235</v>
+        <v>640.2945081500143</v>
       </c>
       <c r="F14" t="n">
         <v>352.5539965283141</v>
@@ -5278,25 +5278,25 @@
         <v>25.87312502320466</v>
       </c>
       <c r="J14" t="n">
-        <v>62.29792126503641</v>
+        <v>323.4507337367871</v>
       </c>
       <c r="K14" t="n">
-        <v>149.8692855370706</v>
+        <v>411.0220980088213</v>
       </c>
       <c r="L14" t="n">
-        <v>469.611855783025</v>
+        <v>543.6482641856674</v>
       </c>
       <c r="M14" t="n">
-        <v>637.7691543198446</v>
+        <v>711.8055627224869</v>
       </c>
       <c r="N14" t="n">
-        <v>811.6463891962744</v>
+        <v>885.6827975989167</v>
       </c>
       <c r="O14" t="n">
-        <v>1131.826311358432</v>
+        <v>1041.202220103998</v>
       </c>
       <c r="P14" t="n">
-        <v>1242.132889839194</v>
+        <v>1151.50879858476</v>
       </c>
       <c r="Q14" t="n">
         <v>1293.656251160233</v>
@@ -5314,16 +5314,16 @@
         <v>1293.656251160233</v>
       </c>
       <c r="V14" t="n">
-        <v>1019.011193842256</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="W14" t="n">
-        <v>1019.011193842256</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="X14" t="n">
-        <v>1019.011193842256</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="Y14" t="n">
-        <v>1019.011193842256</v>
+        <v>1293.656251160233</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360.5978432594642</v>
+        <v>360.5978432594645</v>
       </c>
       <c r="C15" t="n">
-        <v>277.4053647980613</v>
+        <v>277.4053647980616</v>
       </c>
       <c r="D15" t="n">
-        <v>214.7781493980469</v>
+        <v>214.7781493980468</v>
       </c>
       <c r="E15" t="n">
-        <v>145.7934104874395</v>
+        <v>145.7934104874394</v>
       </c>
       <c r="F15" t="n">
-        <v>88.82335634907614</v>
+        <v>88.82335634907605</v>
       </c>
       <c r="G15" t="n">
-        <v>37.20892734684504</v>
+        <v>37.20892734684503</v>
       </c>
       <c r="H15" t="n">
         <v>25.87312502320466</v>
@@ -5357,25 +5357,25 @@
         <v>25.87312502320466</v>
       </c>
       <c r="J15" t="n">
-        <v>230.0708785876864</v>
+        <v>35.33588360795903</v>
       </c>
       <c r="K15" t="n">
-        <v>297.0448762862445</v>
+        <v>262.3746229994696</v>
       </c>
       <c r="L15" t="n">
-        <v>417.2093330474737</v>
+        <v>382.5390797606988</v>
       </c>
       <c r="M15" t="n">
-        <v>570.0175506085375</v>
+        <v>535.3472973217625</v>
       </c>
       <c r="N15" t="n">
-        <v>736.2357661886359</v>
+        <v>701.565512901861</v>
       </c>
       <c r="O15" t="n">
-        <v>873.8500932010118</v>
+        <v>839.1798399142369</v>
       </c>
       <c r="P15" t="n">
-        <v>971.7312298636916</v>
+        <v>937.0609765769168</v>
       </c>
       <c r="Q15" t="n">
         <v>1257.240898739075</v>
@@ -5393,16 +5393,16 @@
         <v>996.3639598780285</v>
       </c>
       <c r="V15" t="n">
-        <v>841.2857102276004</v>
+        <v>841.2857102276005</v>
       </c>
       <c r="W15" t="n">
-        <v>678.6302163393921</v>
+        <v>678.6302163393923</v>
       </c>
       <c r="X15" t="n">
-        <v>556.7848906679086</v>
+        <v>556.7848906679088</v>
       </c>
       <c r="Y15" t="n">
-        <v>444.9324257219207</v>
+        <v>444.9324257219209</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.9922797217661</v>
+        <v>423.6273809095517</v>
       </c>
       <c r="C16" t="n">
-        <v>247.2489137662602</v>
+        <v>423.6273809095517</v>
       </c>
       <c r="D16" t="n">
-        <v>247.2489137662602</v>
+        <v>335.4560197905714</v>
       </c>
       <c r="E16" t="n">
-        <v>247.2489137662602</v>
+        <v>247.3589596282788</v>
       </c>
       <c r="F16" t="n">
-        <v>247.2489137662602</v>
+        <v>247.3589596282788</v>
       </c>
       <c r="G16" t="n">
-        <v>147.2812600184038</v>
+        <v>147.3913058804224</v>
       </c>
       <c r="H16" t="n">
-        <v>66.59633290713863</v>
+        <v>66.7063787691572</v>
       </c>
       <c r="I16" t="n">
         <v>25.87312502320466</v>
       </c>
       <c r="J16" t="n">
-        <v>25.87312502320466</v>
+        <v>53.24178608550898</v>
       </c>
       <c r="K16" t="n">
-        <v>201.6106887988917</v>
+        <v>103.4369716525837</v>
       </c>
       <c r="L16" t="n">
-        <v>485.9012281778242</v>
+        <v>387.7275110315163</v>
       </c>
       <c r="M16" t="n">
-        <v>686.4640840560286</v>
+        <v>700.7140188162157</v>
       </c>
       <c r="N16" t="n">
-        <v>727.9808433939413</v>
+        <v>1007.586060048715</v>
       </c>
       <c r="O16" t="n">
-        <v>1004.926332063741</v>
+        <v>1284.531548718514</v>
       </c>
       <c r="P16" t="n">
-        <v>1222.555170887664</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="Q16" t="n">
         <v>1293.656251160233</v>
       </c>
       <c r="R16" t="n">
-        <v>1293.656251160233</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="S16" t="n">
-        <v>1172.673287957</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="T16" t="n">
-        <v>1007.939484848019</v>
+        <v>1222.564253409145</v>
       </c>
       <c r="U16" t="n">
-        <v>790.0074258779263</v>
+        <v>1004.632194439052</v>
       </c>
       <c r="V16" t="n">
-        <v>790.0074258779263</v>
+        <v>806.1146012383813</v>
       </c>
       <c r="W16" t="n">
-        <v>790.0074258779263</v>
+        <v>590.2459511480638</v>
       </c>
       <c r="X16" t="n">
-        <v>623.3888556394143</v>
+        <v>423.6273809095517</v>
       </c>
       <c r="Y16" t="n">
-        <v>467.7385464345625</v>
+        <v>423.6273809095517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="C17" t="n">
-        <v>997.2142448382508</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="D17" t="n">
-        <v>679.2348680334235</v>
+        <v>1005.915739538533</v>
       </c>
       <c r="E17" t="n">
-        <v>352.5539965283141</v>
+        <v>679.2348680334237</v>
       </c>
       <c r="F17" t="n">
-        <v>25.87312502320466</v>
+        <v>352.5539965283142</v>
       </c>
       <c r="G17" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="H17" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="I17" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J17" t="n">
-        <v>323.4507337367871</v>
+        <v>62.29792126503642</v>
       </c>
       <c r="K17" t="n">
-        <v>411.0220980088213</v>
+        <v>149.8692855370707</v>
       </c>
       <c r="L17" t="n">
-        <v>543.6482641856674</v>
+        <v>282.4954517139167</v>
       </c>
       <c r="M17" t="n">
-        <v>711.8055627224869</v>
+        <v>450.6527502507363</v>
       </c>
       <c r="N17" t="n">
-        <v>885.6827975989167</v>
+        <v>624.5299851271661</v>
       </c>
       <c r="O17" t="n">
-        <v>1041.202220103998</v>
+        <v>944.7099072893238</v>
       </c>
       <c r="P17" t="n">
-        <v>1151.50879858476</v>
+        <v>1055.016485770086</v>
       </c>
       <c r="Q17" t="n">
-        <v>1217.709074717603</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="T17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="U17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="V17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="W17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="X17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="Y17" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.5978432594642</v>
+        <v>360.5978432594647</v>
       </c>
       <c r="C18" t="n">
-        <v>277.4053647980613</v>
+        <v>277.4053647980618</v>
       </c>
       <c r="D18" t="n">
-        <v>214.7781493980465</v>
+        <v>214.778149398047</v>
       </c>
       <c r="E18" t="n">
-        <v>145.7934104874391</v>
+        <v>145.7934104874396</v>
       </c>
       <c r="F18" t="n">
-        <v>88.82335634907614</v>
+        <v>88.82335634907628</v>
       </c>
       <c r="G18" t="n">
-        <v>37.20892734684504</v>
+        <v>37.20892734684519</v>
       </c>
       <c r="H18" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="I18" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J18" t="n">
-        <v>230.0708785876864</v>
+        <v>35.33588360795903</v>
       </c>
       <c r="K18" t="n">
-        <v>297.0448762862445</v>
+        <v>298.7899754206287</v>
       </c>
       <c r="L18" t="n">
-        <v>502.3638272805618</v>
+        <v>418.9544321818578</v>
       </c>
       <c r="M18" t="n">
-        <v>822.5437494427196</v>
+        <v>571.7626497429216</v>
       </c>
       <c r="N18" t="n">
-        <v>988.761965022818</v>
+        <v>737.98086532302</v>
       </c>
       <c r="O18" t="n">
-        <v>1126.376292035194</v>
+        <v>875.595192335396</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.257428697874</v>
+        <v>973.4763289980758</v>
       </c>
       <c r="Q18" t="n">
-        <v>1257.240898739075</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R18" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S18" t="n">
-        <v>1244.45795091684</v>
+        <v>1244.457950916841</v>
       </c>
       <c r="T18" t="n">
         <v>1138.900638263816</v>
       </c>
       <c r="U18" t="n">
-        <v>996.3639598780285</v>
+        <v>996.3639598780287</v>
       </c>
       <c r="V18" t="n">
-        <v>841.2857102276004</v>
+        <v>841.2857102276007</v>
       </c>
       <c r="W18" t="n">
-        <v>678.6302163393921</v>
+        <v>678.6302163393925</v>
       </c>
       <c r="X18" t="n">
-        <v>556.7848906679086</v>
+        <v>556.7848906679091</v>
       </c>
       <c r="Y18" t="n">
-        <v>444.9324257219207</v>
+        <v>444.9324257219212</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.58899963401112</v>
+        <v>201.9627459864337</v>
       </c>
       <c r="C19" t="n">
-        <v>25.87312502320466</v>
+        <v>201.9627459864337</v>
       </c>
       <c r="D19" t="n">
-        <v>25.87312502320466</v>
+        <v>201.9627459864337</v>
       </c>
       <c r="E19" t="n">
-        <v>25.87312502320466</v>
+        <v>113.8656858241411</v>
       </c>
       <c r="F19" t="n">
-        <v>25.87312502320466</v>
+        <v>66.7063787691572</v>
       </c>
       <c r="G19" t="n">
-        <v>25.87312502320466</v>
+        <v>66.7063787691572</v>
       </c>
       <c r="H19" t="n">
-        <v>25.87312502320466</v>
+        <v>66.7063787691572</v>
       </c>
       <c r="I19" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J19" t="n">
-        <v>25.87312502320466</v>
+        <v>53.24178608550899</v>
       </c>
       <c r="K19" t="n">
-        <v>170.6231555789267</v>
+        <v>64.12427711851463</v>
       </c>
       <c r="L19" t="n">
-        <v>454.9136949578592</v>
+        <v>348.4148164974471</v>
       </c>
       <c r="M19" t="n">
-        <v>492.2098824340107</v>
+        <v>661.4013242821466</v>
       </c>
       <c r="N19" t="n">
-        <v>799.0819236665102</v>
+        <v>968.273365514646</v>
       </c>
       <c r="O19" t="n">
-        <v>1076.027412336309</v>
+        <v>1245.218854184445</v>
       </c>
       <c r="P19" t="n">
-        <v>1293.656251160233</v>
+        <v>1254.343556626164</v>
       </c>
       <c r="Q19" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R19" t="n">
-        <v>1293.656251160233</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="S19" t="n">
-        <v>1293.656251160233</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="T19" t="n">
-        <v>1128.922448051252</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="U19" t="n">
-        <v>910.9903890811596</v>
+        <v>1056.364135433582</v>
       </c>
       <c r="V19" t="n">
-        <v>712.4727958804888</v>
+        <v>857.8465422329114</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6041457901713</v>
+        <v>641.9778921425939</v>
       </c>
       <c r="X19" t="n">
-        <v>329.9855755516593</v>
+        <v>475.3593219040819</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3352663468075</v>
+        <v>319.7090126992301</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>692.330322337147</v>
+        <v>679.2348680334237</v>
       </c>
       <c r="C20" t="n">
-        <v>366.6165728185825</v>
+        <v>679.2348680334237</v>
       </c>
       <c r="D20" t="n">
-        <v>366.6165728185825</v>
+        <v>679.2348680334237</v>
       </c>
       <c r="E20" t="n">
-        <v>39.93570131347303</v>
+        <v>352.5539965283142</v>
       </c>
       <c r="F20" t="n">
-        <v>39.93570131347303</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="G20" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="H20" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="I20" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J20" t="n">
-        <v>323.4507337367871</v>
+        <v>62.29792126503639</v>
       </c>
       <c r="K20" t="n">
-        <v>411.0220980088213</v>
+        <v>149.8692855370706</v>
       </c>
       <c r="L20" t="n">
-        <v>543.6482641856674</v>
+        <v>282.4954517139166</v>
       </c>
       <c r="M20" t="n">
-        <v>711.8055627224869</v>
+        <v>602.6753738760744</v>
       </c>
       <c r="N20" t="n">
-        <v>976.306888853351</v>
+        <v>922.8552960382322</v>
       </c>
       <c r="O20" t="n">
-        <v>1131.826311358432</v>
+        <v>1078.374718543313</v>
       </c>
       <c r="P20" t="n">
-        <v>1242.132889839194</v>
+        <v>1188.681297024076</v>
       </c>
       <c r="Q20" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R20" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S20" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="T20" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="U20" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="V20" t="n">
-        <v>1019.011193842256</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="W20" t="n">
-        <v>1019.011193842256</v>
+        <v>1005.915739538533</v>
       </c>
       <c r="X20" t="n">
-        <v>1019.011193842256</v>
+        <v>1005.915739538533</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.011193842256</v>
+        <v>1005.915739538533</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.5978432594644</v>
+        <v>360.5978432594642</v>
       </c>
       <c r="C21" t="n">
-        <v>277.4053647980614</v>
+        <v>277.4053647980613</v>
       </c>
       <c r="D21" t="n">
-        <v>214.7781493980467</v>
+        <v>214.7781493980465</v>
       </c>
       <c r="E21" t="n">
-        <v>145.7934104874392</v>
+        <v>145.7934104874391</v>
       </c>
       <c r="F21" t="n">
-        <v>88.82335634907594</v>
+        <v>88.82335634907581</v>
       </c>
       <c r="G21" t="n">
-        <v>37.20892734684503</v>
+        <v>37.20892734684504</v>
       </c>
       <c r="H21" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="I21" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J21" t="n">
-        <v>35.33588360795901</v>
+        <v>35.33588360795902</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3098813065172</v>
+        <v>355.5158057701168</v>
       </c>
       <c r="L21" t="n">
-        <v>222.4743380677463</v>
+        <v>475.680262531346</v>
       </c>
       <c r="M21" t="n">
-        <v>446.2832573611824</v>
+        <v>628.4884800924096</v>
       </c>
       <c r="N21" t="n">
-        <v>766.4631795233402</v>
+        <v>794.7066956725081</v>
       </c>
       <c r="O21" t="n">
-        <v>904.0775065357161</v>
+        <v>932.3210226848839</v>
       </c>
       <c r="P21" t="n">
         <v>1224.257428697874</v>
@@ -5855,10 +5855,10 @@
         <v>1257.240898739075</v>
       </c>
       <c r="R21" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S21" t="n">
-        <v>1244.45795091684</v>
+        <v>1244.457950916841</v>
       </c>
       <c r="T21" t="n">
         <v>1138.900638263816</v>
@@ -5867,16 +5867,16 @@
         <v>996.3639598780285</v>
       </c>
       <c r="V21" t="n">
-        <v>841.2857102276005</v>
+        <v>841.2857102276004</v>
       </c>
       <c r="W21" t="n">
-        <v>678.6302163393922</v>
+        <v>678.6302163393921</v>
       </c>
       <c r="X21" t="n">
-        <v>556.7848906679087</v>
+        <v>556.7848906679086</v>
       </c>
       <c r="Y21" t="n">
-        <v>444.9324257219208</v>
+        <v>444.9324257219207</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>318.0932567596073</v>
+        <v>154.9752095902494</v>
       </c>
       <c r="C22" t="n">
-        <v>318.0932567596073</v>
+        <v>154.9752095902494</v>
       </c>
       <c r="D22" t="n">
-        <v>318.0932567596073</v>
+        <v>154.9752095902494</v>
       </c>
       <c r="E22" t="n">
-        <v>247.3589596282788</v>
+        <v>66.87814942795676</v>
       </c>
       <c r="F22" t="n">
-        <v>247.3589596282788</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="G22" t="n">
-        <v>147.3913058804224</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="H22" t="n">
-        <v>66.7063787691572</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="I22" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="J22" t="n">
-        <v>25.87312502320466</v>
+        <v>25.87312502320467</v>
       </c>
       <c r="K22" t="n">
-        <v>160.2881171649656</v>
+        <v>36.7556160562103</v>
       </c>
       <c r="L22" t="n">
-        <v>444.5786565438981</v>
+        <v>321.0461554351429</v>
       </c>
       <c r="M22" t="n">
-        <v>757.5651643285975</v>
+        <v>634.0326632198422</v>
       </c>
       <c r="N22" t="n">
-        <v>799.0819236665102</v>
+        <v>940.9047044523417</v>
       </c>
       <c r="O22" t="n">
-        <v>1076.027412336309</v>
+        <v>1217.850193122141</v>
       </c>
       <c r="P22" t="n">
-        <v>1293.656251160233</v>
+        <v>1226.97489556386</v>
       </c>
       <c r="Q22" t="n">
-        <v>1293.656251160233</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R22" t="n">
-        <v>1293.656251160233</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="S22" t="n">
-        <v>1172.673287957</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.939484848019</v>
+        <v>1109.562391294694</v>
       </c>
       <c r="U22" t="n">
-        <v>790.0074258779263</v>
+        <v>891.6303323246015</v>
       </c>
       <c r="V22" t="n">
-        <v>591.4898326772554</v>
+        <v>693.1127391239306</v>
       </c>
       <c r="W22" t="n">
-        <v>591.4898326772554</v>
+        <v>477.2440890336131</v>
       </c>
       <c r="X22" t="n">
-        <v>591.4898326772554</v>
+        <v>310.6255187951011</v>
       </c>
       <c r="Y22" t="n">
-        <v>435.8395234724037</v>
+        <v>154.9752095902494</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1064.47369035392</v>
+        <v>1611.17117191428</v>
       </c>
       <c r="C23" t="n">
-        <v>738.7599408353553</v>
+        <v>1285.457422395715</v>
       </c>
       <c r="D23" t="n">
-        <v>738.7599408353553</v>
+        <v>967.4780455908876</v>
       </c>
       <c r="E23" t="n">
         <v>738.7599408353553</v>
@@ -5992,22 +5992,22 @@
         <v>343.0422711685437</v>
       </c>
       <c r="K23" t="n">
-        <v>905.6674690486899</v>
+        <v>430.6136354405779</v>
       </c>
       <c r="L23" t="n">
-        <v>1038.293635225536</v>
+        <v>563.239801617424</v>
       </c>
       <c r="M23" t="n">
-        <v>1600.918833105682</v>
+        <v>731.3971001542435</v>
       </c>
       <c r="N23" t="n">
-        <v>1774.796067982112</v>
+        <v>905.2743350306732</v>
       </c>
       <c r="O23" t="n">
-        <v>1930.315490487193</v>
+        <v>1255.238115529094</v>
       </c>
       <c r="P23" t="n">
-        <v>2040.622068967955</v>
+        <v>1817.86331340924</v>
       </c>
       <c r="Q23" t="n">
         <v>2197.285946305436</v>
@@ -6019,22 +6019,22 @@
         <v>2273.233122748065</v>
       </c>
       <c r="T23" t="n">
-        <v>2236.670398931471</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.526494276144</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="V23" t="n">
-        <v>2048.526494276144</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="W23" t="n">
-        <v>2048.526494276144</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="X23" t="n">
-        <v>1726.535641187706</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="Y23" t="n">
-        <v>1397.506684086812</v>
+        <v>1944.204165647172</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>800.4806990192574</v>
+        <v>800.4806990192569</v>
       </c>
       <c r="C24" t="n">
-        <v>649.8264685793495</v>
+        <v>649.8264685793491</v>
       </c>
       <c r="D24" t="n">
-        <v>519.7375012008299</v>
+        <v>519.7375012008295</v>
       </c>
       <c r="E24" t="n">
-        <v>383.2910103117176</v>
+        <v>383.2910103117172</v>
       </c>
       <c r="F24" t="n">
-        <v>258.8592041948493</v>
+        <v>258.859204194849</v>
       </c>
       <c r="G24" t="n">
         <v>139.7830232141131</v>
@@ -6068,22 +6068,22 @@
         <v>45.46466245496131</v>
       </c>
       <c r="J24" t="n">
-        <v>54.92742103971565</v>
+        <v>249.662416019443</v>
       </c>
       <c r="K24" t="n">
-        <v>314.949651443777</v>
+        <v>725.0765257602276</v>
       </c>
       <c r="L24" t="n">
-        <v>435.1141082050062</v>
+        <v>1287.701723640374</v>
       </c>
       <c r="M24" t="n">
-        <v>587.9223257660699</v>
+        <v>1440.509941201437</v>
       </c>
       <c r="N24" t="n">
-        <v>754.1405413461683</v>
+        <v>1606.728156781536</v>
       </c>
       <c r="O24" t="n">
-        <v>1316.765739226315</v>
+        <v>1781.509800443781</v>
       </c>
       <c r="P24" t="n">
         <v>1879.390937106461</v>
@@ -6095,25 +6095,25 @@
         <v>2273.233122748065</v>
       </c>
       <c r="S24" t="n">
-        <v>2156.573070526168</v>
+        <v>2156.573070526167</v>
       </c>
       <c r="T24" t="n">
         <v>1983.554005894638</v>
       </c>
       <c r="U24" t="n">
-        <v>1773.555575530346</v>
+        <v>1773.555575530345</v>
       </c>
       <c r="V24" t="n">
-        <v>1551.015573901413</v>
+        <v>1551.015573901412</v>
       </c>
       <c r="W24" t="n">
-        <v>1320.8983280347</v>
+        <v>1320.898328034699</v>
       </c>
       <c r="X24" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y24" t="n">
-        <v>952.2770334602187</v>
+        <v>952.2770334602183</v>
       </c>
     </row>
     <row r="25">
@@ -6153,16 +6153,16 @@
         <v>380.8094135212179</v>
       </c>
       <c r="L25" t="n">
-        <v>731.2192160142831</v>
+        <v>695.4642555795945</v>
       </c>
       <c r="M25" t="n">
-        <v>1044.205723798982</v>
+        <v>1008.450763364294</v>
       </c>
       <c r="N25" t="n">
-        <v>1351.077765031482</v>
+        <v>1315.322804596793</v>
       </c>
       <c r="O25" t="n">
-        <v>1628.023253701281</v>
+        <v>1658.387556380725</v>
       </c>
       <c r="P25" t="n">
         <v>1876.016395204649</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1086.795062890326</v>
+        <v>873.6834447923651</v>
       </c>
       <c r="C26" t="n">
-        <v>693.6195613932568</v>
+        <v>873.6834447923651</v>
       </c>
       <c r="D26" t="n">
-        <v>308.1784326099246</v>
+        <v>873.6834447923651</v>
       </c>
       <c r="E26" t="n">
-        <v>308.1784326099246</v>
+        <v>873.6834447923651</v>
       </c>
       <c r="F26" t="n">
-        <v>45.46466245496131</v>
+        <v>456.7890063223429</v>
       </c>
       <c r="G26" t="n">
         <v>45.46466245496131</v>
@@ -6226,28 +6226,28 @@
         <v>45.46466245496131</v>
       </c>
       <c r="J26" t="n">
-        <v>81.88945869679303</v>
+        <v>343.0422711685437</v>
       </c>
       <c r="K26" t="n">
-        <v>169.4608229688272</v>
+        <v>625.0579934339172</v>
       </c>
       <c r="L26" t="n">
-        <v>732.0860208489734</v>
+        <v>757.6841596107632</v>
       </c>
       <c r="M26" t="n">
-        <v>1294.71121872912</v>
+        <v>925.8414581475828</v>
       </c>
       <c r="N26" t="n">
-        <v>1627.984488866026</v>
+        <v>1099.718693024013</v>
       </c>
       <c r="O26" t="n">
-        <v>1783.503911371107</v>
+        <v>1255.238115529094</v>
       </c>
       <c r="P26" t="n">
-        <v>1893.81048985187</v>
+        <v>1817.86331340924</v>
       </c>
       <c r="Q26" t="n">
-        <v>2273.233122748065</v>
+        <v>2197.285946305436</v>
       </c>
       <c r="R26" t="n">
         <v>2273.233122748065</v>
@@ -6259,19 +6259,19 @@
         <v>2273.233122748065</v>
       </c>
       <c r="U26" t="n">
-        <v>2273.233122748065</v>
+        <v>2034.629830602418</v>
       </c>
       <c r="V26" t="n">
-        <v>2273.233122748065</v>
+        <v>2034.629830602418</v>
       </c>
       <c r="W26" t="n">
-        <v>2273.233122748065</v>
+        <v>1663.630795570705</v>
       </c>
       <c r="X26" t="n">
-        <v>1883.780517681122</v>
+        <v>1274.178190503762</v>
       </c>
       <c r="Y26" t="n">
-        <v>1487.289808601723</v>
+        <v>1274.178190503762</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>800.4806990192576</v>
+        <v>800.4806990192574</v>
       </c>
       <c r="C27" t="n">
-        <v>649.8264685793498</v>
+        <v>649.8264685793496</v>
       </c>
       <c r="D27" t="n">
-        <v>519.7375012008295</v>
+        <v>519.7375012008299</v>
       </c>
       <c r="E27" t="n">
-        <v>383.2910103117172</v>
+        <v>383.2910103117176</v>
       </c>
       <c r="F27" t="n">
-        <v>258.859204194849</v>
+        <v>258.8592041948494</v>
       </c>
       <c r="G27" t="n">
-        <v>139.7830232141131</v>
+        <v>139.7830232141132</v>
       </c>
       <c r="H27" t="n">
-        <v>60.98546891196779</v>
+        <v>60.98546891196793</v>
       </c>
       <c r="I27" t="n">
         <v>45.46466245496131</v>
       </c>
       <c r="J27" t="n">
-        <v>249.662416019443</v>
+        <v>54.92742103971565</v>
       </c>
       <c r="K27" t="n">
-        <v>725.0765257602276</v>
+        <v>121.9014187382738</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2409825214568</v>
+        <v>242.065875499503</v>
       </c>
       <c r="M27" t="n">
-        <v>998.0492000825204</v>
+        <v>804.6910733796492</v>
       </c>
       <c r="N27" t="n">
-        <v>1543.32796574288</v>
+        <v>1367.316271259795</v>
       </c>
       <c r="O27" t="n">
-        <v>2105.953163623026</v>
+        <v>1781.509800443781</v>
       </c>
       <c r="P27" t="n">
-        <v>2203.834300285706</v>
+        <v>1879.390937106461</v>
       </c>
       <c r="Q27" t="n">
         <v>2236.817770326907</v>
@@ -6347,10 +6347,10 @@
         <v>1320.8983280347</v>
       </c>
       <c r="X27" t="n">
-        <v>1131.591250384712</v>
+        <v>1131.591250384711</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.2770334602189</v>
+        <v>952.2770334602187</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0449638464785</v>
+        <v>212.8940681813226</v>
       </c>
       <c r="C28" t="n">
-        <v>45.46466245496131</v>
+        <v>212.8940681813226</v>
       </c>
       <c r="D28" t="n">
-        <v>45.46466245496131</v>
+        <v>212.8940681813226</v>
       </c>
       <c r="E28" t="n">
-        <v>45.46466245496131</v>
+        <v>212.8940681813226</v>
       </c>
       <c r="F28" t="n">
-        <v>45.46466245496131</v>
+        <v>212.8940681813226</v>
       </c>
       <c r="G28" t="n">
         <v>45.46466245496131</v>
@@ -6414,22 +6414,22 @@
         <v>1529.950668273638</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.755113186152</v>
+        <v>1529.950668273638</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.755113186152</v>
+        <v>1404.604217520995</v>
       </c>
       <c r="V28" t="n">
-        <v>1031.775768006976</v>
+        <v>1138.62487234182</v>
       </c>
       <c r="W28" t="n">
-        <v>748.4453659381534</v>
+        <v>855.2944702729975</v>
       </c>
       <c r="X28" t="n">
-        <v>514.3650437211364</v>
+        <v>621.2141480559806</v>
       </c>
       <c r="Y28" t="n">
-        <v>291.2529825377798</v>
+        <v>398.1020868726239</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>765.1749277519984</v>
+        <v>1159.632532708474</v>
       </c>
       <c r="C29" t="n">
-        <v>371.999426254929</v>
+        <v>1159.632532708474</v>
       </c>
       <c r="D29" t="n">
-        <v>371.999426254929</v>
+        <v>774.1914039251421</v>
       </c>
       <c r="E29" t="n">
-        <v>45.46466245496131</v>
+        <v>774.1914039251421</v>
       </c>
       <c r="F29" t="n">
-        <v>45.46466245496131</v>
+        <v>456.7890063223429</v>
       </c>
       <c r="G29" t="n">
         <v>45.46466245496131</v>
@@ -6463,52 +6463,52 @@
         <v>45.46466245496131</v>
       </c>
       <c r="J29" t="n">
-        <v>81.88945869679303</v>
+        <v>343.0422711685437</v>
       </c>
       <c r="K29" t="n">
-        <v>644.5146565769392</v>
+        <v>758.8558899326041</v>
       </c>
       <c r="L29" t="n">
-        <v>777.1408227537852</v>
+        <v>891.4820561094501</v>
       </c>
       <c r="M29" t="n">
-        <v>945.2981212906047</v>
+        <v>1454.107253989596</v>
       </c>
       <c r="N29" t="n">
-        <v>1507.923319170751</v>
+        <v>1627.984488866026</v>
       </c>
       <c r="O29" t="n">
-        <v>1663.442741675832</v>
+        <v>1783.503911371107</v>
       </c>
       <c r="P29" t="n">
-        <v>2145.762584984397</v>
+        <v>1893.81048985187</v>
       </c>
       <c r="Q29" t="n">
-        <v>2197.285946305436</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="R29" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S29" t="n">
-        <v>2148.612373040787</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.159417574507</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="U29" t="n">
-        <v>1933.159417574507</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="V29" t="n">
-        <v>1933.159417574507</v>
+        <v>1931.126313451584</v>
       </c>
       <c r="W29" t="n">
-        <v>1562.160382542794</v>
+        <v>1560.127278419871</v>
       </c>
       <c r="X29" t="n">
-        <v>1562.160382542794</v>
+        <v>1560.127278419871</v>
       </c>
       <c r="Y29" t="n">
-        <v>1165.669673463395</v>
+        <v>1560.127278419871</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>800.4806990192574</v>
+        <v>800.4806990192569</v>
       </c>
       <c r="C30" t="n">
-        <v>649.8264685793495</v>
+        <v>649.8264685793491</v>
       </c>
       <c r="D30" t="n">
-        <v>519.7375012008297</v>
+        <v>519.7375012008295</v>
       </c>
       <c r="E30" t="n">
-        <v>383.2910103117174</v>
+        <v>383.2910103117172</v>
       </c>
       <c r="F30" t="n">
-        <v>258.8592041948491</v>
+        <v>258.859204194849</v>
       </c>
       <c r="G30" t="n">
-        <v>139.7830232141132</v>
+        <v>139.7830232141131</v>
       </c>
       <c r="H30" t="n">
         <v>60.98546891196779</v>
@@ -6545,49 +6545,49 @@
         <v>249.662416019443</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4268620910141</v>
+        <v>316.6364137180012</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0520599711602</v>
+        <v>879.2616115981474</v>
       </c>
       <c r="M30" t="n">
-        <v>1477.677257851306</v>
+        <v>1032.069829159211</v>
       </c>
       <c r="N30" t="n">
-        <v>1643.895473431405</v>
+        <v>1198.288044739309</v>
       </c>
       <c r="O30" t="n">
-        <v>1781.509800443781</v>
+        <v>1353.181091647473</v>
       </c>
       <c r="P30" t="n">
-        <v>1879.390937106461</v>
+        <v>1915.806289527619</v>
       </c>
       <c r="Q30" t="n">
-        <v>2236.817770326907</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="R30" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S30" t="n">
-        <v>2156.573070526168</v>
+        <v>2156.573070526167</v>
       </c>
       <c r="T30" t="n">
         <v>1983.554005894638</v>
       </c>
       <c r="U30" t="n">
-        <v>1773.555575530346</v>
+        <v>1773.555575530345</v>
       </c>
       <c r="V30" t="n">
-        <v>1551.015573901413</v>
+        <v>1551.015573901412</v>
       </c>
       <c r="W30" t="n">
-        <v>1320.8983280347</v>
+        <v>1320.898328034699</v>
       </c>
       <c r="X30" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y30" t="n">
-        <v>952.2770334602187</v>
+        <v>952.2770334602183</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.7788151091471</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="C31" t="n">
-        <v>525.7788151091471</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="D31" t="n">
-        <v>525.7788151091471</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="E31" t="n">
-        <v>370.2200029683496</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="F31" t="n">
-        <v>212.8940681813226</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="G31" t="n">
-        <v>45.46466245496131</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="H31" t="n">
-        <v>45.46466245496131</v>
+        <v>153.7596681794187</v>
       </c>
       <c r="I31" t="n">
         <v>45.46466245496131</v>
@@ -6645,28 +6645,28 @@
         <v>1718.395383455376</v>
       </c>
       <c r="R31" t="n">
-        <v>1631.573574720313</v>
+        <v>1718.395383455376</v>
       </c>
       <c r="S31" t="n">
-        <v>1443.128859538574</v>
+        <v>1529.950668273638</v>
       </c>
       <c r="T31" t="n">
-        <v>1210.933304451088</v>
+        <v>1297.755113186152</v>
       </c>
       <c r="U31" t="n">
-        <v>925.5394935024908</v>
+        <v>1160.26179882779</v>
       </c>
       <c r="V31" t="n">
-        <v>759.859137326164</v>
+        <v>894.2824536486146</v>
       </c>
       <c r="W31" t="n">
-        <v>759.859137326164</v>
+        <v>610.9520515797923</v>
       </c>
       <c r="X31" t="n">
-        <v>525.7788151091471</v>
+        <v>376.8717293627753</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.7788151091471</v>
+        <v>153.7596681794187</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>734.6806761701343</v>
+        <v>1608.432276186509</v>
       </c>
       <c r="C32" t="n">
-        <v>399.1470904977039</v>
+        <v>1608.432276186509</v>
       </c>
       <c r="D32" t="n">
-        <v>399.1470904977039</v>
+        <v>1350.954723555358</v>
       </c>
       <c r="E32" t="n">
-        <v>399.1470904977039</v>
+        <v>1006.013114496541</v>
       </c>
       <c r="F32" t="n">
-        <v>399.1470904977039</v>
+        <v>646.7605918511581</v>
       </c>
       <c r="G32" t="n">
-        <v>45.46466245496131</v>
+        <v>293.0781638084156</v>
       </c>
       <c r="H32" t="n">
         <v>45.46466245496131</v>
@@ -6703,25 +6703,25 @@
         <v>343.0422711685437</v>
       </c>
       <c r="K32" t="n">
-        <v>905.6674690486899</v>
+        <v>430.6136354405779</v>
       </c>
       <c r="L32" t="n">
-        <v>1038.293635225536</v>
+        <v>563.239801617424</v>
       </c>
       <c r="M32" t="n">
-        <v>1206.450933762355</v>
+        <v>731.3971001542435</v>
       </c>
       <c r="N32" t="n">
-        <v>1627.984488866026</v>
+        <v>905.2743350306732</v>
       </c>
       <c r="O32" t="n">
-        <v>1783.503911371107</v>
+        <v>1255.238115529094</v>
       </c>
       <c r="P32" t="n">
-        <v>1893.81048985187</v>
+        <v>1817.86331340924</v>
       </c>
       <c r="Q32" t="n">
-        <v>2273.233122748065</v>
+        <v>2197.285946305436</v>
       </c>
       <c r="R32" t="n">
         <v>2273.233122748065</v>
@@ -6730,22 +6730,22 @@
         <v>2206.254288865425</v>
       </c>
       <c r="T32" t="n">
-        <v>2048.443249223784</v>
+        <v>2206.254288865425</v>
       </c>
       <c r="U32" t="n">
-        <v>1850.479508414591</v>
+        <v>2206.254288865425</v>
       </c>
       <c r="V32" t="n">
-        <v>1722.70131450627</v>
+        <v>1921.789395393582</v>
       </c>
       <c r="W32" t="n">
-        <v>1409.344195299197</v>
+        <v>1608.432276186509</v>
       </c>
       <c r="X32" t="n">
-        <v>1077.533506056892</v>
+        <v>1608.432276186509</v>
       </c>
       <c r="Y32" t="n">
-        <v>1077.533506056892</v>
+        <v>1608.432276186509</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>800.4806990192574</v>
       </c>
       <c r="C33" t="n">
-        <v>649.8264685793495</v>
+        <v>649.8264685793496</v>
       </c>
       <c r="D33" t="n">
-        <v>519.7375012008297</v>
+        <v>519.7375012008299</v>
       </c>
       <c r="E33" t="n">
-        <v>383.2910103117174</v>
+        <v>383.2910103117176</v>
       </c>
       <c r="F33" t="n">
-        <v>258.859204194849</v>
+        <v>258.8592041948494</v>
       </c>
       <c r="G33" t="n">
-        <v>139.783023214113</v>
+        <v>139.7830232141131</v>
       </c>
       <c r="H33" t="n">
-        <v>60.98546891196776</v>
+        <v>60.98546891196779</v>
       </c>
       <c r="I33" t="n">
         <v>45.46466245496131</v>
@@ -6785,19 +6785,19 @@
         <v>725.0765257602276</v>
       </c>
       <c r="L33" t="n">
-        <v>1184.568342252022</v>
+        <v>860.1249790727765</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.376559813085</v>
+        <v>1012.93319663384</v>
       </c>
       <c r="N33" t="n">
-        <v>1503.594775393184</v>
+        <v>1179.151412213939</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.20910240556</v>
+        <v>1316.765739226315</v>
       </c>
       <c r="P33" t="n">
-        <v>2203.834300285706</v>
+        <v>1879.390937106461</v>
       </c>
       <c r="Q33" t="n">
         <v>2236.817770326907</v>
@@ -6809,7 +6809,7 @@
         <v>2156.573070526168</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.554005894638</v>
+        <v>1983.554005894639</v>
       </c>
       <c r="U33" t="n">
         <v>1773.555575530346</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.5653201823984</v>
+        <v>704.565320182398</v>
       </c>
       <c r="C34" t="n">
-        <v>592.0021180730265</v>
+        <v>592.0021180730262</v>
       </c>
       <c r="D34" t="n">
-        <v>494.0109208001801</v>
+        <v>494.0109208001797</v>
       </c>
       <c r="E34" t="n">
-        <v>396.0940244840216</v>
+        <v>396.0940244840212</v>
       </c>
       <c r="F34" t="n">
-        <v>296.4100055216335</v>
+        <v>296.4100055216332</v>
       </c>
       <c r="G34" t="n">
-        <v>186.6225156199112</v>
+        <v>186.6225156199109</v>
       </c>
       <c r="H34" t="n">
-        <v>96.11775235477978</v>
+        <v>96.11775235477977</v>
       </c>
       <c r="I34" t="n">
         <v>45.46466245496131</v>
       </c>
       <c r="J34" t="n">
-        <v>129.3281652169942</v>
+        <v>129.3281652169943</v>
       </c>
       <c r="K34" t="n">
-        <v>361.5605706924097</v>
+        <v>361.5605706924099</v>
       </c>
       <c r="L34" t="n">
-        <v>702.3459517710709</v>
+        <v>702.345951771071</v>
       </c>
       <c r="M34" t="n">
         <v>1071.827301255499</v>
@@ -6885,7 +6885,7 @@
         <v>2141.174224142781</v>
       </c>
       <c r="S34" t="n">
-        <v>2010.371424785681</v>
+        <v>2010.371424785682</v>
       </c>
       <c r="T34" t="n">
         <v>1835.817785522835</v>
@@ -6894,16 +6894,16 @@
         <v>1608.065890398876</v>
       </c>
       <c r="V34" t="n">
-        <v>1399.72846104434</v>
+        <v>1399.728461044339</v>
       </c>
       <c r="W34" t="n">
         <v>1174.039974800156</v>
       </c>
       <c r="X34" t="n">
-        <v>997.6015684077784</v>
+        <v>997.601568407778</v>
       </c>
       <c r="Y34" t="n">
-        <v>832.1314230490608</v>
+        <v>832.1314230490602</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1091.086794900132</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="C35" t="n">
-        <v>1091.086794900132</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="D35" t="n">
-        <v>1091.086794900132</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="E35" t="n">
-        <v>746.1451858413154</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="F35" t="n">
-        <v>386.8926631959321</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="G35" t="n">
-        <v>33.21023515318956</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H35" t="n">
         <v>28.6787924957378</v>
@@ -6937,52 +6937,52 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J35" t="n">
-        <v>65.10358873756952</v>
+        <v>326.2564012093202</v>
       </c>
       <c r="K35" t="n">
-        <v>152.6749530096037</v>
+        <v>413.8277654813544</v>
       </c>
       <c r="L35" t="n">
-        <v>330.5816157830914</v>
+        <v>546.4539316582004</v>
       </c>
       <c r="M35" t="n">
-        <v>498.7389143199109</v>
+        <v>714.61123019502</v>
       </c>
       <c r="N35" t="n">
-        <v>672.6161491963406</v>
+        <v>888.4884650714497</v>
       </c>
       <c r="O35" t="n">
-        <v>1027.516206331096</v>
+        <v>1044.007887576531</v>
       </c>
       <c r="P35" t="n">
-        <v>1382.416263465851</v>
+        <v>1154.314466057293</v>
       </c>
       <c r="Q35" t="n">
-        <v>1433.93962478689</v>
+        <v>1357.99244834426</v>
       </c>
       <c r="R35" t="n">
         <v>1433.93962478689</v>
       </c>
       <c r="S35" t="n">
-        <v>1433.93962478689</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="T35" t="n">
-        <v>1433.93962478689</v>
+        <v>1209.149751262609</v>
       </c>
       <c r="U35" t="n">
-        <v>1433.93962478689</v>
+        <v>1011.186010453416</v>
       </c>
       <c r="V35" t="n">
-        <v>1433.93962478689</v>
+        <v>726.7211169815732</v>
       </c>
       <c r="W35" t="n">
-        <v>1433.93962478689</v>
+        <v>413.3639977744996</v>
       </c>
       <c r="X35" t="n">
-        <v>1433.93962478689</v>
+        <v>367.5275857504977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1433.93962478689</v>
+        <v>28.6787924957378</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>422.3225276551934</v>
+        <v>422.3225276551938</v>
       </c>
       <c r="C36" t="n">
-        <v>329.3102130399245</v>
+        <v>329.3102130399249</v>
       </c>
       <c r="D36" t="n">
-        <v>256.8631614860438</v>
+        <v>256.8631614860442</v>
       </c>
       <c r="E36" t="n">
-        <v>178.0585864215705</v>
+        <v>178.0585864215709</v>
       </c>
       <c r="F36" t="n">
-        <v>111.2686961293412</v>
+        <v>111.2686961293416</v>
       </c>
       <c r="G36" t="n">
-        <v>49.83443097324412</v>
+        <v>49.83443097324459</v>
       </c>
       <c r="H36" t="n">
         <v>28.6787924957378</v>
@@ -7016,28 +7016,28 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J36" t="n">
-        <v>38.14155108049214</v>
+        <v>232.8765460602195</v>
       </c>
       <c r="K36" t="n">
-        <v>105.1155487790503</v>
+        <v>299.8505437587777</v>
       </c>
       <c r="L36" t="n">
-        <v>225.2800055402795</v>
+        <v>524.5176708359169</v>
       </c>
       <c r="M36" t="n">
-        <v>383.8916155037465</v>
+        <v>677.3258883969805</v>
       </c>
       <c r="N36" t="n">
-        <v>550.1098310838449</v>
+        <v>843.544103977079</v>
       </c>
       <c r="O36" t="n">
-        <v>687.7241580962208</v>
+        <v>981.1584309894549</v>
       </c>
       <c r="P36" t="n">
-        <v>1042.624215230976</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q36" t="n">
-        <v>1397.524272365731</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R36" t="n">
         <v>1433.93962478689</v>
@@ -7049,19 +7049,19 @@
         <v>1259.544339582741</v>
       </c>
       <c r="U36" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V36" t="n">
-        <v>942.2897392387932</v>
+        <v>942.2897392387936</v>
       </c>
       <c r="W36" t="n">
-        <v>769.814409196719</v>
+        <v>769.8144091967193</v>
       </c>
       <c r="X36" t="n">
-        <v>638.1492473713696</v>
+        <v>638.1492473713699</v>
       </c>
       <c r="Y36" t="n">
-        <v>516.4769462715158</v>
+        <v>516.4769462715161</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>255.6996230502683</v>
+        <v>128.3628114581259</v>
       </c>
       <c r="C37" t="n">
-        <v>255.6996230502683</v>
+        <v>128.3628114581259</v>
       </c>
       <c r="D37" t="n">
-        <v>179.0159013579444</v>
+        <v>128.3628114581259</v>
       </c>
       <c r="E37" t="n">
-        <v>179.0159013579444</v>
+        <v>128.3628114581259</v>
       </c>
       <c r="F37" t="n">
-        <v>79.33188239555628</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="G37" t="n">
-        <v>79.33188239555628</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H37" t="n">
-        <v>79.33188239555628</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="I37" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J37" t="n">
-        <v>28.6787924957378</v>
+        <v>56.04745355804211</v>
       </c>
       <c r="K37" t="n">
-        <v>204.4163562714248</v>
+        <v>231.7850173337291</v>
       </c>
       <c r="L37" t="n">
-        <v>488.7068956503573</v>
+        <v>516.0755567126616</v>
       </c>
       <c r="M37" t="n">
-        <v>561.3921757880985</v>
+        <v>561.3921757880987</v>
       </c>
       <c r="N37" t="n">
-        <v>868.2642170205979</v>
+        <v>868.2642170205982</v>
       </c>
       <c r="O37" t="n">
         <v>1145.209705690397</v>
@@ -7122,25 +7122,25 @@
         <v>1433.93962478689</v>
       </c>
       <c r="S37" t="n">
-        <v>1433.93962478689</v>
+        <v>1303.136825429791</v>
       </c>
       <c r="T37" t="n">
-        <v>1259.385985524043</v>
+        <v>1128.583186166944</v>
       </c>
       <c r="U37" t="n">
-        <v>1031.634090400084</v>
+        <v>904.2972788079419</v>
       </c>
       <c r="V37" t="n">
-        <v>823.2966610455474</v>
+        <v>695.959849453405</v>
       </c>
       <c r="W37" t="n">
-        <v>597.6081748013639</v>
+        <v>470.2713632092215</v>
       </c>
       <c r="X37" t="n">
-        <v>421.169768408986</v>
+        <v>293.8329568168436</v>
       </c>
       <c r="Y37" t="n">
-        <v>255.6996230502683</v>
+        <v>128.3628114581259</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.55330853219493</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="C38" t="n">
-        <v>81.55330853219493</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="D38" t="n">
-        <v>81.55330853219493</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="E38" t="n">
-        <v>81.55330853219493</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="F38" t="n">
-        <v>38.49862864960375</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="G38" t="n">
-        <v>38.49862864960375</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H38" t="n">
-        <v>38.49862864960375</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="I38" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J38" t="n">
-        <v>326.2564012093202</v>
+        <v>256.137131217339</v>
       </c>
       <c r="K38" t="n">
-        <v>413.8277654813544</v>
+        <v>343.7084954893732</v>
       </c>
       <c r="L38" t="n">
-        <v>546.4539316582004</v>
+        <v>698.6085526241285</v>
       </c>
       <c r="M38" t="n">
-        <v>714.61123019502</v>
+        <v>866.765851160948</v>
       </c>
       <c r="N38" t="n">
-        <v>888.4884650714497</v>
+        <v>1040.643086037378</v>
       </c>
       <c r="O38" t="n">
-        <v>1044.007887576531</v>
+        <v>1196.162508542459</v>
       </c>
       <c r="P38" t="n">
-        <v>1154.314466057293</v>
+        <v>1306.469087023221</v>
       </c>
       <c r="Q38" t="n">
-        <v>1433.93962478689</v>
+        <v>1357.99244834426</v>
       </c>
       <c r="R38" t="n">
         <v>1433.93962478689</v>
@@ -7204,22 +7204,22 @@
         <v>1366.96079090425</v>
       </c>
       <c r="T38" t="n">
-        <v>1209.149751262609</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="U38" t="n">
-        <v>1011.186010453416</v>
+        <v>1168.997050095057</v>
       </c>
       <c r="V38" t="n">
-        <v>726.7211169815728</v>
+        <v>1042.19110487956</v>
       </c>
       <c r="W38" t="n">
-        <v>413.3639977744992</v>
+        <v>1042.19110487956</v>
       </c>
       <c r="X38" t="n">
-        <v>81.55330853219493</v>
+        <v>710.3804156372557</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.55330853219493</v>
+        <v>371.5316223824958</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>422.3225276551934</v>
+        <v>422.3225276551936</v>
       </c>
       <c r="C39" t="n">
-        <v>329.3102130399245</v>
+        <v>329.3102130399247</v>
       </c>
       <c r="D39" t="n">
-        <v>256.8631614860438</v>
+        <v>256.863161486044</v>
       </c>
       <c r="E39" t="n">
-        <v>178.0585864215705</v>
+        <v>178.0585864215707</v>
       </c>
       <c r="F39" t="n">
-        <v>111.2686961293412</v>
+        <v>111.2686961293414</v>
       </c>
       <c r="G39" t="n">
-        <v>49.83443097324413</v>
+        <v>49.83443097324439</v>
       </c>
       <c r="H39" t="n">
-        <v>28.67879249573781</v>
+        <v>28.67879249573808</v>
       </c>
       <c r="I39" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J39" t="n">
-        <v>38.14155108049214</v>
+        <v>232.8765460602195</v>
       </c>
       <c r="K39" t="n">
-        <v>367.9378616535289</v>
+        <v>455.1188483735575</v>
       </c>
       <c r="L39" t="n">
-        <v>488.1023184147581</v>
+        <v>810.0189055083127</v>
       </c>
       <c r="M39" t="n">
-        <v>640.9105359758217</v>
+        <v>962.8271230693764</v>
       </c>
       <c r="N39" t="n">
-        <v>807.1287515559202</v>
+        <v>1129.045338649475</v>
       </c>
       <c r="O39" t="n">
-        <v>944.7430785682961</v>
+        <v>1266.659665661851</v>
       </c>
       <c r="P39" t="n">
-        <v>1042.624215230976</v>
+        <v>1364.540802324531</v>
       </c>
       <c r="Q39" t="n">
         <v>1397.524272365731</v>
@@ -7286,19 +7286,19 @@
         <v>1259.544339582741</v>
       </c>
       <c r="U39" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V39" t="n">
-        <v>942.2897392387932</v>
+        <v>942.2897392387935</v>
       </c>
       <c r="W39" t="n">
-        <v>769.814409196719</v>
+        <v>769.8144091967192</v>
       </c>
       <c r="X39" t="n">
-        <v>638.1492473713696</v>
+        <v>638.1492473713698</v>
       </c>
       <c r="Y39" t="n">
-        <v>516.4769462715158</v>
+        <v>516.476946271516</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>589.7882529503282</v>
+        <v>527.3388704216337</v>
       </c>
       <c r="C40" t="n">
-        <v>477.2250508409564</v>
+        <v>414.7756683122619</v>
       </c>
       <c r="D40" t="n">
-        <v>477.2250508409564</v>
+        <v>316.7844710394156</v>
       </c>
       <c r="E40" t="n">
-        <v>379.3081545247978</v>
+        <v>218.867574723257</v>
       </c>
       <c r="F40" t="n">
-        <v>279.6241355624097</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8366456606874</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="H40" t="n">
-        <v>79.33188239555628</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="I40" t="n">
         <v>28.6787924957378</v>
@@ -7338,13 +7338,13 @@
         <v>231.7850173337291</v>
       </c>
       <c r="L40" t="n">
-        <v>516.0755567126616</v>
+        <v>500.2072175388682</v>
       </c>
       <c r="M40" t="n">
-        <v>561.3921757880985</v>
+        <v>813.1937253235676</v>
       </c>
       <c r="N40" t="n">
-        <v>868.2642170205979</v>
+        <v>1120.065766556067</v>
       </c>
       <c r="O40" t="n">
         <v>1145.209705690397</v>
@@ -7359,25 +7359,25 @@
         <v>1433.93962478689</v>
       </c>
       <c r="S40" t="n">
-        <v>1433.93962478689</v>
+        <v>1303.136825429791</v>
       </c>
       <c r="T40" t="n">
-        <v>1327.818677808089</v>
+        <v>1128.583186166944</v>
       </c>
       <c r="U40" t="n">
-        <v>1327.818677808089</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="V40" t="n">
-        <v>1119.481248453552</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="W40" t="n">
-        <v>893.7927622093686</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="X40" t="n">
-        <v>717.3543558169906</v>
+        <v>724.3928846506074</v>
       </c>
       <c r="Y40" t="n">
-        <v>717.3543558169906</v>
+        <v>654.9049732882961</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.6787924957378</v>
+        <v>420.427312403068</v>
       </c>
       <c r="C41" t="n">
-        <v>28.6787924957378</v>
+        <v>420.427312403068</v>
       </c>
       <c r="D41" t="n">
-        <v>28.6787924957378</v>
+        <v>92.62809944437464</v>
       </c>
       <c r="E41" t="n">
-        <v>28.6787924957378</v>
+        <v>92.62809944437464</v>
       </c>
       <c r="F41" t="n">
-        <v>28.6787924957378</v>
+        <v>92.62809944437464</v>
       </c>
       <c r="G41" t="n">
-        <v>28.6787924957378</v>
+        <v>92.62809944437464</v>
       </c>
       <c r="H41" t="n">
         <v>28.6787924957378</v>
@@ -7414,19 +7414,19 @@
         <v>65.10358873756952</v>
       </c>
       <c r="K41" t="n">
-        <v>152.6749530096037</v>
+        <v>175.0621932780102</v>
       </c>
       <c r="L41" t="n">
-        <v>507.5750101443589</v>
+        <v>529.9622504127655</v>
       </c>
       <c r="M41" t="n">
-        <v>862.4750672791142</v>
+        <v>698.119548949585</v>
       </c>
       <c r="N41" t="n">
-        <v>1116.590262480008</v>
+        <v>871.9967838260147</v>
       </c>
       <c r="O41" t="n">
-        <v>1272.109684985089</v>
+        <v>1027.516206331096</v>
       </c>
       <c r="P41" t="n">
         <v>1382.416263465851</v>
@@ -7447,16 +7447,16 @@
         <v>1433.93962478689</v>
       </c>
       <c r="V41" t="n">
-        <v>1355.548224086634</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="W41" t="n">
-        <v>1042.19110487956</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="X41" t="n">
-        <v>710.3804156372557</v>
+        <v>1102.128935544586</v>
       </c>
       <c r="Y41" t="n">
-        <v>371.5316223824958</v>
+        <v>763.2801422898259</v>
       </c>
     </row>
     <row r="42">
@@ -7469,16 +7469,16 @@
         <v>422.3225276551933</v>
       </c>
       <c r="C42" t="n">
-        <v>329.3102130399244</v>
+        <v>329.3102130399245</v>
       </c>
       <c r="D42" t="n">
         <v>256.8631614860437</v>
       </c>
       <c r="E42" t="n">
-        <v>178.0585864215703</v>
+        <v>178.0585864215704</v>
       </c>
       <c r="F42" t="n">
-        <v>111.2686961293411</v>
+        <v>111.2686961293412</v>
       </c>
       <c r="G42" t="n">
         <v>49.83443097324411</v>
@@ -7490,22 +7490,22 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J42" t="n">
-        <v>38.14155108049214</v>
+        <v>232.8765460602195</v>
       </c>
       <c r="K42" t="n">
-        <v>105.1155487790503</v>
+        <v>367.9378616535289</v>
       </c>
       <c r="L42" t="n">
-        <v>225.2800055402795</v>
+        <v>488.1023184147581</v>
       </c>
       <c r="M42" t="n">
-        <v>378.0882231013431</v>
+        <v>640.9105359758217</v>
       </c>
       <c r="N42" t="n">
-        <v>732.9882802360984</v>
+        <v>807.1287515559202</v>
       </c>
       <c r="O42" t="n">
-        <v>870.6026072484742</v>
+        <v>944.7430785682961</v>
       </c>
       <c r="P42" t="n">
         <v>1042.624215230976</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>575.2162481138027</v>
+        <v>607.7950428176052</v>
       </c>
       <c r="C43" t="n">
-        <v>575.2162481138027</v>
+        <v>495.2318407082334</v>
       </c>
       <c r="D43" t="n">
         <v>477.2250508409564</v>
@@ -7563,7 +7563,7 @@
         <v>169.8366456606874</v>
       </c>
       <c r="H43" t="n">
-        <v>79.33188239555628</v>
+        <v>79.33188239555626</v>
       </c>
       <c r="I43" t="n">
         <v>28.6787924957378</v>
@@ -7572,16 +7572,16 @@
         <v>56.04745355804211</v>
       </c>
       <c r="K43" t="n">
-        <v>231.7850173337291</v>
+        <v>66.92994459104773</v>
       </c>
       <c r="L43" t="n">
-        <v>516.0755567126616</v>
+        <v>351.2204839699803</v>
       </c>
       <c r="M43" t="n">
-        <v>829.062064497361</v>
+        <v>664.2069917546796</v>
       </c>
       <c r="N43" t="n">
-        <v>1135.93410572986</v>
+        <v>971.0790329871791</v>
       </c>
       <c r="O43" t="n">
         <v>1216.310785962966</v>
@@ -7593,28 +7593,28 @@
         <v>1433.93962478689</v>
       </c>
       <c r="R43" t="n">
-        <v>1404.759731876466</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S43" t="n">
-        <v>1273.956932519366</v>
+        <v>1303.136825429791</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.956932519366</v>
+        <v>1128.583186166944</v>
       </c>
       <c r="U43" t="n">
-        <v>1046.205037395408</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="V43" t="n">
-        <v>1046.205037395408</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="W43" t="n">
-        <v>1044.690902731561</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="X43" t="n">
-        <v>868.2524963391828</v>
+        <v>900.8312910429853</v>
       </c>
       <c r="Y43" t="n">
-        <v>702.7823509804651</v>
+        <v>735.3611456842676</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>810.6259380602872</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="C44" t="n">
-        <v>810.6259380602872</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="D44" t="n">
-        <v>810.6259380602872</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="E44" t="n">
-        <v>465.6843290014707</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="F44" t="n">
-        <v>106.4318063560874</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="G44" t="n">
-        <v>106.4318063560874</v>
+        <v>286.112130003058</v>
       </c>
       <c r="H44" t="n">
-        <v>28.6787924957378</v>
+        <v>38.49862864960373</v>
       </c>
       <c r="I44" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J44" t="n">
-        <v>65.10358873756952</v>
+        <v>326.2564012093202</v>
       </c>
       <c r="K44" t="n">
-        <v>384.9595641889567</v>
+        <v>413.8277654813544</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5857303658028</v>
+        <v>546.4539316582004</v>
       </c>
       <c r="M44" t="n">
-        <v>685.7430289026223</v>
+        <v>714.61123019502</v>
       </c>
       <c r="N44" t="n">
-        <v>1040.643086037378</v>
+        <v>888.4884650714497</v>
       </c>
       <c r="O44" t="n">
-        <v>1196.162508542459</v>
+        <v>1044.007887576531</v>
       </c>
       <c r="P44" t="n">
-        <v>1306.469087023221</v>
+        <v>1154.314466057293</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.99244834426</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R44" t="n">
         <v>1433.93962478689</v>
@@ -7678,22 +7678,22 @@
         <v>1433.93962478689</v>
       </c>
       <c r="T44" t="n">
-        <v>1433.93962478689</v>
+        <v>1276.128585145249</v>
       </c>
       <c r="U44" t="n">
-        <v>1433.93962478689</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="V44" t="n">
-        <v>1149.474731315047</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="W44" t="n">
-        <v>1149.474731315047</v>
+        <v>764.8077251289824</v>
       </c>
       <c r="X44" t="n">
-        <v>1149.474731315047</v>
+        <v>432.9970358866781</v>
       </c>
       <c r="Y44" t="n">
-        <v>810.6259380602872</v>
+        <v>432.9970358866781</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>422.3225276551934</v>
+        <v>422.3225276551933</v>
       </c>
       <c r="C45" t="n">
         <v>329.3102130399245</v>
       </c>
       <c r="D45" t="n">
-        <v>256.8631614860438</v>
+        <v>256.8631614860437</v>
       </c>
       <c r="E45" t="n">
-        <v>178.0585864215705</v>
+        <v>178.0585864215704</v>
       </c>
       <c r="F45" t="n">
         <v>111.2686961293412</v>
       </c>
       <c r="G45" t="n">
-        <v>49.83443097324412</v>
+        <v>49.83443097324411</v>
       </c>
       <c r="H45" t="n">
         <v>28.6787924957378</v>
@@ -7727,25 +7727,25 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J45" t="n">
-        <v>232.8765460602195</v>
+        <v>38.14155108049215</v>
       </c>
       <c r="K45" t="n">
-        <v>299.8505437587777</v>
+        <v>105.1155487790503</v>
       </c>
       <c r="L45" t="n">
-        <v>420.0150005200069</v>
+        <v>460.0156059138056</v>
       </c>
       <c r="M45" t="n">
-        <v>572.8232180810705</v>
+        <v>612.8238234748692</v>
       </c>
       <c r="N45" t="n">
-        <v>739.041433661169</v>
+        <v>779.0420390549676</v>
       </c>
       <c r="O45" t="n">
-        <v>876.6557606735448</v>
+        <v>916.6563660673435</v>
       </c>
       <c r="P45" t="n">
-        <v>1231.5558178083</v>
+        <v>1271.556423202099</v>
       </c>
       <c r="Q45" t="n">
         <v>1397.524272365731</v>
@@ -7760,19 +7760,19 @@
         <v>1259.544339582741</v>
       </c>
       <c r="U45" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V45" t="n">
-        <v>942.2897392387932</v>
+        <v>942.2897392387935</v>
       </c>
       <c r="W45" t="n">
-        <v>769.814409196719</v>
+        <v>769.8144091967192</v>
       </c>
       <c r="X45" t="n">
-        <v>638.1492473713696</v>
+        <v>638.1492473713695</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.4769462715158</v>
+        <v>516.4769462715157</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9774118947462</v>
+        <v>228.9710456625912</v>
       </c>
       <c r="C46" t="n">
-        <v>326.4142097853744</v>
+        <v>228.9710456625912</v>
       </c>
       <c r="D46" t="n">
-        <v>228.4230125125281</v>
+        <v>228.9710456625912</v>
       </c>
       <c r="E46" t="n">
-        <v>179.0159013579444</v>
+        <v>228.9710456625912</v>
       </c>
       <c r="F46" t="n">
-        <v>79.33188239555628</v>
+        <v>228.9710456625912</v>
       </c>
       <c r="G46" t="n">
-        <v>79.33188239555628</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="H46" t="n">
-        <v>79.33188239555628</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="I46" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J46" t="n">
-        <v>28.6787924957378</v>
+        <v>56.04745355804211</v>
       </c>
       <c r="K46" t="n">
-        <v>204.4163562714248</v>
+        <v>231.7850173337291</v>
       </c>
       <c r="L46" t="n">
-        <v>456.909804385604</v>
+        <v>516.0755567126616</v>
       </c>
       <c r="M46" t="n">
-        <v>769.8963121703034</v>
+        <v>561.3921757880987</v>
       </c>
       <c r="N46" t="n">
-        <v>1076.768353402803</v>
+        <v>868.2642170205982</v>
       </c>
       <c r="O46" t="n">
-        <v>1353.713842072602</v>
+        <v>1145.209705690397</v>
       </c>
       <c r="P46" t="n">
         <v>1362.838544514321</v>
@@ -7833,25 +7833,25 @@
         <v>1404.759731876466</v>
       </c>
       <c r="S46" t="n">
-        <v>1404.759731876466</v>
+        <v>1273.956932519367</v>
       </c>
       <c r="T46" t="n">
-        <v>1404.759731876466</v>
+        <v>1099.40329325652</v>
       </c>
       <c r="U46" t="n">
-        <v>1177.007836752507</v>
+        <v>871.651398132561</v>
       </c>
       <c r="V46" t="n">
-        <v>968.6704073979699</v>
+        <v>663.3139687780242</v>
       </c>
       <c r="W46" t="n">
-        <v>742.9819211537865</v>
+        <v>437.6254825338408</v>
       </c>
       <c r="X46" t="n">
-        <v>566.5435147614086</v>
+        <v>261.1870761414629</v>
       </c>
       <c r="Y46" t="n">
-        <v>566.5435147614086</v>
+        <v>228.9710456625912</v>
       </c>
     </row>
   </sheetData>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>125.0576804628451</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>153.5582056821597</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.53948611559051</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>255.0769685193763</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.076968519376</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>63.40046388903782</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8865,7 +8865,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>54.83077836322818</v>
       </c>
       <c r="Q13" t="n">
         <v>101.9350150692923</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>189.006468756675</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>166.32373702735</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.53948611559005</v>
       </c>
       <c r="R14" t="n">
         <v>25.80329536283243</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>161.6815572656085</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.076968519376</v>
+        <v>290.0974263848051</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>39.70979245865568</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>164.9158266687403</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>30.11574206669746</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>166.3237370273501</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.82516647656981</v>
+        <v>189.0064687566752</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>198.4647415294056</v>
       </c>
       <c r="L18" t="n">
-        <v>86.01464063948292</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.062327879893</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>290.0974263848052</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186372</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>135.2197368916327</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
@@ -9339,10 +9339,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.11574206669746</v>
+        <v>69.82553452535338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>153.5582056821598</v>
       </c>
       <c r="N20" t="n">
-        <v>91.53948611559028</v>
+        <v>147.7804922078061</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>53.99150789405962</v>
       </c>
       <c r="R20" t="n">
         <v>25.80329536283244</v>
@@ -9482,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>255.7635600642421</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>71.71788053774992</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>155.5168753354134</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>224.5442277772504</v>
+        <v>196.015423586172</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>24.82742427930263</v>
       </c>
       <c r="K22" t="n">
-        <v>124.7803041502578</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
@@ -9570,16 +9570,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.11574206669748</v>
+        <v>97.47064670949908</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>479.8523571799111</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.4524235791178</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>196.4084424175144</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>456.887494342812</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.202541430749</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>194.9982148540437</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>446.9300415342596</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>429.3039099674448</v>
+        <v>37.54274409077681</v>
       </c>
       <c r="P24" t="n">
-        <v>469.4384456742084</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>196.4084424175144</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3424562659598</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>398.4524235791178</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>161.0060962227039</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>456.887494342812</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>25.80329536283244</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>413.956545776851</v>
       </c>
       <c r="N27" t="n">
-        <v>382.8894445255165</v>
+        <v>400.4110932323715</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3039099674448</v>
+        <v>279.372931486474</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>479.8523571799111</v>
+        <v>331.5578328202285</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>398.4524235791178</v>
       </c>
       <c r="N29" t="n">
-        <v>392.6747101047641</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>375.7709745735378</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>36.15196805354837</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>446.9300415342597</v>
       </c>
       <c r="M30" t="n">
-        <v>413.956545776851</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>17.45325241998731</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>469.4384456742084</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186373</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>479.8523571799111</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>250.1578992194354</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>196.4084424175144</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>456.887494342812</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>25.80329536283244</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>342.7549088187525</v>
+        <v>15.03433995082798</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>469.4384456742084</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>45.73787535014307</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>201.3945804340142</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>247.0641198525182</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>153.6915363292201</v>
       </c>
       <c r="R35" t="n">
-        <v>25.80329536283244</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>105.5582528443536</v>
       </c>
       <c r="M36" t="n">
-        <v>5.862012527680179</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>259.6150711839146</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>325.1682697914693</v>
+        <v>325.1682697914694</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186373</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>166.520275497658</v>
@@ -10752,7 +10752,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>35.74655824403</v>
+        <v>8.101446059884424</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>192.9631742219894</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>224.519081775666</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>230.4058559682401</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>25.80329536283244</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>265.4770837115946</v>
+        <v>156.8366713280604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>237.1066670439658</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>325.1682697914693</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -10986,16 +10986,16 @@
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>253.4605344048249</v>
+        <v>237.4319089767507</v>
       </c>
       <c r="M40" t="n">
-        <v>8.101446059884196</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>210.6102387699041</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>22.61337400849138</v>
       </c>
       <c r="L41" t="n">
-        <v>224.5190817756659</v>
+        <v>224.519081775666</v>
       </c>
       <c r="M41" t="n">
-        <v>188.6290490888239</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>81.04844477218549</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>247.0641198525182</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>68.77506858055676</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>190.5877187420776</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>74.88936496951712</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>325.1682697914693</v>
+        <v>325.1682697914694</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11220,7 +11220,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
@@ -11232,7 +11232,7 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>55.79064757452039</v>
+        <v>222.3109230721786</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>234.6309203831849</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>182.8513356144703</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>230.4058559682404</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>237.1066670439658</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>259.6150711839146</v>
+        <v>259.6150711839147</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.3282671881114</v>
+        <v>93.92361527518374</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>221.3422604000236</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>278.4750710187352</v>
+        <v>8.101446059884424</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -11472,7 +11472,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -23260,7 +23260,7 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4566120233789</v>
+        <v>96.10646272832662</v>
       </c>
       <c r="D11" t="n">
         <v>314.7995830367791</v>
@@ -23269,10 +23269,10 @@
         <v>331.7705551759011</v>
       </c>
       <c r="F11" t="n">
-        <v>345.9383596266022</v>
+        <v>22.52429683654373</v>
       </c>
       <c r="G11" t="n">
-        <v>340.4239659699879</v>
+        <v>17.00990317992945</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.58740775148629</v>
+        <v>56.5874077514863</v>
       </c>
       <c r="T11" t="n">
-        <v>146.5112914528973</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>57.74436080573466</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>300.5019102226756</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y11" t="n">
         <v>325.738667529885</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>75.32368122870488</v>
       </c>
       <c r="C13" t="n">
-        <v>42.09847286165179</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>98.96797721037781</v>
+        <v>98.9679772103778</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.87807784015254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>213.7099635894143</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>164.9523845361269</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.7026637955631</v>
+        <v>6.288601005504745</v>
       </c>
       <c r="C14" t="n">
         <v>322.4566120233789</v>
       </c>
       <c r="D14" t="n">
-        <v>301.8350832760929</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E14" t="n">
         <v>8.356492385842728</v>
       </c>
       <c r="F14" t="n">
-        <v>22.52429683654384</v>
+        <v>61.07525312111898</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00990317992955</v>
+        <v>17.00990317992957</v>
       </c>
       <c r="H14" t="n">
         <v>235.4157285475924</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.58740775148629</v>
+        <v>56.5874077514863</v>
       </c>
       <c r="T14" t="n">
         <v>146.5112914528973</v>
@@ -23554,7 +23554,7 @@
         <v>186.262465608774</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W14" t="n">
         <v>300.5019102226756</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.5688040456684</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.7159322959508</v>
       </c>
       <c r="D16" t="n">
-        <v>87.28964750779056</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>87.21608956066967</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>88.96554098043694</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1089454033983799</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>111.8718434933066</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>196.5324172686642</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>213.7099635894143</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C17" t="n">
-        <v>28.97902576461621</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>29.9364765312958</v>
       </c>
       <c r="E17" t="n">
-        <v>8.356492385842728</v>
+        <v>8.356492385842671</v>
       </c>
       <c r="F17" t="n">
-        <v>22.52429683654384</v>
+        <v>22.52429683654378</v>
       </c>
       <c r="G17" t="n">
-        <v>340.4239659699879</v>
+        <v>17.00990317992951</v>
       </c>
       <c r="H17" t="n">
         <v>235.4157285475924</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.30721643125244</v>
+        <v>101.7159322959508</v>
       </c>
       <c r="D19" t="n">
         <v>87.28964750779056</v>
       </c>
       <c r="E19" t="n">
-        <v>87.21608956066967</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88.96554098043694</v>
+        <v>42.27782699600286</v>
       </c>
       <c r="G19" t="n">
-        <v>98.96797721037781</v>
+        <v>98.9679772103778</v>
       </c>
       <c r="H19" t="n">
         <v>79.87807784015254</v>
       </c>
       <c r="I19" t="n">
-        <v>40.424921208493</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>119.773133571201</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>163.0864650778911</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.288601005504745</v>
+        <v>6.288601005504688</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D20" t="n">
         <v>314.7995830367791</v>
       </c>
       <c r="E20" t="n">
-        <v>8.356492385842728</v>
+        <v>8.356492385842671</v>
       </c>
       <c r="F20" t="n">
-        <v>345.9383596266022</v>
+        <v>22.52429683654378</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5020154426222</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H20" t="n">
         <v>235.4157285475924</v>
@@ -24028,10 +24028,10 @@
         <v>186.262465608774</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W20" t="n">
-        <v>300.5019102226756</v>
+        <v>15.63880371719227</v>
       </c>
       <c r="X20" t="n">
         <v>318.7709445575539</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>116.5688040456684</v>
       </c>
       <c r="C22" t="n">
         <v>101.7159322959508</v>
@@ -24135,19 +24135,19 @@
         <v>87.28964750779056</v>
       </c>
       <c r="E22" t="n">
-        <v>17.18913540065446</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.96554098043694</v>
+        <v>48.37056681973237</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.9679772103778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>79.87807784015254</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.7099635894143</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>164.9523845361269</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>314.7995830367791</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>331.7705551759011</v>
+        <v>105.3396314679241</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>56.5874077514863</v>
       </c>
       <c r="T23" t="n">
-        <v>110.3141948744694</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V23" t="n">
         <v>271.898606744797</v>
@@ -24271,7 +24271,7 @@
         <v>300.5019102226756</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>152.6388616319084</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.2111004287077</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>302.2028630063123</v>
@@ -24499,19 +24499,19 @@
         <v>213.2984259116172</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0496000674938</v>
+        <v>16.83234084330269</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.5285683770687</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.7551116690976</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>146.6652122988724</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.873599536611</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5398728391116</v>
+        <v>158.4468865939959</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>75.28827347265286</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>98.49712045855074</v>
       </c>
       <c r="G29" t="n">
-        <v>407.2111004287077</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>302.2028630063123</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.3745422102061</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.2984259116172</v>
       </c>
       <c r="U29" t="n">
         <v>253.0496000674938</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7551116690976</v>
       </c>
       <c r="H31" t="n">
         <v>146.6652122988724</v>
       </c>
       <c r="I31" t="n">
-        <v>107.2120556672128</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>85.95359064771259</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>146.4214916243338</v>
       </c>
       <c r="V31" t="n">
-        <v>99.29599911282051</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>339.4243015878903</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>332.1782498157061</v>
       </c>
       <c r="D32" t="n">
-        <v>324.5212208291064</v>
+        <v>69.61844372426694</v>
       </c>
       <c r="E32" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>355.6599974189294</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>245.1373663399197</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.721637792327286</v>
+        <v>9.721637792327272</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>195.9841034011013</v>
       </c>
       <c r="V32" t="n">
-        <v>155.1198325678866</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y32" t="n">
         <v>335.4603053222123</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>339.4243015878903</v>
       </c>
       <c r="C35" t="n">
         <v>332.1782498157061</v>
@@ -25162,19 +25162,19 @@
         <v>324.5212208291064</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>350.1456037623151</v>
       </c>
       <c r="H35" t="n">
-        <v>240.6512381090425</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I35" t="n">
-        <v>9.721637792327286</v>
+        <v>9.721637792327272</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.30904554381358</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>195.9841034011013</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>328.4925823498812</v>
+        <v>283.1145344461193</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>111.4375700882781</v>
       </c>
       <c r="D37" t="n">
-        <v>21.0944008247172</v>
+        <v>97.01128530011783</v>
       </c>
       <c r="E37" t="n">
-        <v>96.93772735299696</v>
+        <v>96.93772735299694</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>108.6896150027051</v>
       </c>
       <c r="H37" t="n">
-        <v>89.59971563247983</v>
+        <v>89.59971563247981</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.14655900082028</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>28.88809398132003</v>
       </c>
       <c r="S37" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.431327887307049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>332.1782498157061</v>
@@ -25402,7 +25402,7 @@
         <v>341.4921929682283</v>
       </c>
       <c r="F38" t="n">
-        <v>313.0358643351641</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G38" t="n">
         <v>350.1456037623151</v>
@@ -25411,7 +25411,7 @@
         <v>245.1373663399197</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.721637792327272</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>156.0823587737823</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.01128530011785</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.14655900082028</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.88809398132003</v>
+        <v>28.88809398132002</v>
       </c>
       <c r="S40" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>67.74836536120529</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>225.4743761727191</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>206.2540550609914</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>223.4316013817416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.8154439051305</v>
+        <v>95.02241165644239</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>332.1782498157061</v>
       </c>
       <c r="D41" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>341.4921929682283</v>
@@ -25645,10 +25645,10 @@
         <v>350.1456037623151</v>
       </c>
       <c r="H41" t="n">
-        <v>245.1373663399197</v>
+        <v>181.8275524607692</v>
       </c>
       <c r="I41" t="n">
-        <v>9.721637792327286</v>
+        <v>9.721637792327272</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.30904554381358</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T41" t="n">
         <v>156.2329292452246</v>
@@ -25687,10 +25687,10 @@
         <v>195.9841034011013</v>
       </c>
       <c r="V41" t="n">
-        <v>204.0127578438705</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.1845633315136</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.88809398132002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>206.2540550609914</v>
       </c>
       <c r="W43" t="n">
-        <v>221.9326080645333</v>
+        <v>223.4316013817416</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>174.6740223284542</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>324.5212208291064</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G44" t="n">
-        <v>350.1456037623151</v>
+        <v>204.7295469375312</v>
       </c>
       <c r="H44" t="n">
-        <v>168.1618826181736</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.721637792327286</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30904554381358</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T44" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>195.9841034011013</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W44" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.01128530011783</v>
       </c>
       <c r="E46" t="n">
-        <v>48.0246873099591</v>
+        <v>96.93772735299694</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.68717877276421</v>
       </c>
       <c r="G46" t="n">
-        <v>108.6896150027051</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>89.59971563247983</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.14655900082028</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.8154439051305</v>
+        <v>131.9215737310476</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461628.9157436645</v>
+        <v>461628.9157436644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>461628.9157436644</v>
+        <v>461628.9157436643</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461628.9157436644</v>
+        <v>461628.9157436643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461628.9157436644</v>
+        <v>461628.9157436643</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502188.1170445736</v>
+        <v>502188.1170445739</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>587857.8263069479</v>
+        <v>587857.8263069477</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469698.0274080276</v>
+        <v>469698.0274080278</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469698.0274080277</v>
+        <v>469698.0274080278</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>647637.196732981</v>
+      </c>
+      <c r="C2" t="n">
         <v>647637.1967329814</v>
-      </c>
-      <c r="C2" t="n">
-        <v>647637.1967329812</v>
       </c>
       <c r="D2" t="n">
         <v>647637.196732981</v>
       </c>
       <c r="E2" t="n">
-        <v>449992.5902413673</v>
+        <v>449992.5902413676</v>
       </c>
       <c r="F2" t="n">
-        <v>449992.5902413673</v>
+        <v>449992.5902413676</v>
       </c>
       <c r="G2" t="n">
         <v>449992.5902413673</v>
       </c>
       <c r="H2" t="n">
-        <v>449992.5902413677</v>
+        <v>449992.5902413678</v>
       </c>
       <c r="I2" t="n">
-        <v>533046.7697937054</v>
+        <v>533046.7697937052</v>
       </c>
       <c r="J2" t="n">
-        <v>431890.7938972038</v>
+        <v>431890.7938972036</v>
       </c>
       <c r="K2" t="n">
-        <v>431890.7938972037</v>
+        <v>431890.7938972036</v>
       </c>
       <c r="L2" t="n">
-        <v>522599.8978220705</v>
+        <v>522599.8978220707</v>
       </c>
       <c r="M2" t="n">
+        <v>448876.1573572964</v>
+      </c>
+      <c r="N2" t="n">
         <v>448876.1573572962</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>448876.1573572963</v>
+      </c>
+      <c r="P2" t="n">
         <v>448876.1573572964</v>
-      </c>
-      <c r="O2" t="n">
-        <v>448876.1573572966</v>
-      </c>
-      <c r="P2" t="n">
-        <v>448876.1573572962</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>513720.1561898525</v>
+        <v>513720.1561898526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65122.51531737697</v>
+        <v>65122.51531737696</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45652.39733311404</v>
+        <v>45652.39733311405</v>
       </c>
       <c r="M3" t="n">
-        <v>28307.25388705457</v>
+        <v>28307.2538870545</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392183.307156155</v>
+        <v>393055.349986987</v>
       </c>
       <c r="C4" t="n">
-        <v>392183.307156155</v>
+        <v>393055.349986987</v>
       </c>
       <c r="D4" t="n">
-        <v>392183.307156155</v>
+        <v>393055.349986987</v>
       </c>
       <c r="E4" t="n">
-        <v>119858.8495844762</v>
+        <v>120331.2371396205</v>
       </c>
       <c r="F4" t="n">
-        <v>119858.8495844762</v>
+        <v>120331.2371396205</v>
       </c>
       <c r="G4" t="n">
-        <v>119858.8495844762</v>
+        <v>120331.2371396205</v>
       </c>
       <c r="H4" t="n">
-        <v>119858.8495844762</v>
+        <v>120331.2371396205</v>
       </c>
       <c r="I4" t="n">
-        <v>158465.5936981018</v>
+        <v>159681.3956607273</v>
       </c>
       <c r="J4" t="n">
-        <v>94222.01980938693</v>
+        <v>95437.82177201242</v>
       </c>
       <c r="K4" t="n">
-        <v>94222.01980938693</v>
+        <v>95437.82177201241</v>
       </c>
       <c r="L4" t="n">
-        <v>151889.3134396041</v>
+        <v>153105.1154022296</v>
       </c>
       <c r="M4" t="n">
-        <v>116910.5970383405</v>
+        <v>117500.624283346</v>
       </c>
       <c r="N4" t="n">
-        <v>116910.5970383405</v>
+        <v>117500.624283346</v>
       </c>
       <c r="O4" t="n">
-        <v>116910.5970383405</v>
+        <v>117500.624283346</v>
       </c>
       <c r="P4" t="n">
-        <v>116910.5970383405</v>
+        <v>117500.624283346</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>44422.69774414969</v>
       </c>
       <c r="L5" t="n">
-        <v>49220.13698339664</v>
+        <v>49220.13698339665</v>
       </c>
       <c r="M5" t="n">
         <v>36462.87581438677</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221826.2895768264</v>
+        <v>220949.9171782076</v>
       </c>
       <c r="C6" t="n">
-        <v>221826.2895768263</v>
+        <v>220949.917178208</v>
       </c>
       <c r="D6" t="n">
-        <v>221826.289576826</v>
+        <v>220949.9171782076</v>
       </c>
       <c r="E6" t="n">
-        <v>-218734.2724357861</v>
+        <v>-219760.0023545267</v>
       </c>
       <c r="F6" t="n">
-        <v>294985.8837540664</v>
+        <v>293960.153835326</v>
       </c>
       <c r="G6" t="n">
-        <v>294985.8837540663</v>
+        <v>293960.1538353256</v>
       </c>
       <c r="H6" t="n">
-        <v>294985.8837540667</v>
+        <v>293960.1538353261</v>
       </c>
       <c r="I6" t="n">
-        <v>259421.2354272668</v>
+        <v>257882.7971553568</v>
       </c>
       <c r="J6" t="n">
-        <v>293246.0763436671</v>
+        <v>291426.6492498224</v>
       </c>
       <c r="K6" t="n">
-        <v>293246.0763436671</v>
+        <v>291426.6492498224</v>
       </c>
       <c r="L6" t="n">
-        <v>275838.0500659557</v>
+        <v>274270.5927052359</v>
       </c>
       <c r="M6" t="n">
-        <v>267195.4306175144</v>
+        <v>266048.959806457</v>
       </c>
       <c r="N6" t="n">
-        <v>295502.6845045692</v>
+        <v>294356.2136935113</v>
       </c>
       <c r="O6" t="n">
-        <v>295502.6845045693</v>
+        <v>294356.2136935114</v>
       </c>
       <c r="P6" t="n">
-        <v>295502.6845045689</v>
+        <v>294356.2136935115</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="M2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="N2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="O2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="P2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="3">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="F4" t="n">
         <v>323.4140627900583</v>
       </c>
       <c r="G4" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="H4" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="I4" t="n">
         <v>568.3082806870163</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>113.5906882997647</v>
+        <v>113.5906882997645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>323.4140627900583</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28654,7 +28654,7 @@
         <v>66.78713445871983</v>
       </c>
       <c r="F18" t="n">
-        <v>66.78713445872015</v>
+        <v>66.78713445871983</v>
       </c>
       <c r="G18" t="n">
         <v>66.78713445871983</v>
@@ -29225,19 +29225,19 @@
         <v>66.78713445871983</v>
       </c>
       <c r="L25" t="n">
+        <v>30.67101280751922</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>66.78713445871983</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
-        <v>30.67101280751928</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>66.78713445871983</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="K34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="L34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="M34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="N34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="O34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="P34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="R34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="S34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I36" t="n">
         <v>15.36559839243642</v>
@@ -30115,25 +30115,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="S37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y38" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I39" t="n">
         <v>15.36559839243642</v>
@@ -30352,25 +30352,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="S40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I42" t="n">
         <v>15.36559839243642</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="S43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I45" t="n">
         <v>15.36559839243642</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="C46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="D46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="E46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="F46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="G46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="H46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="I46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="S46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="T46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="U46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="V46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="W46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="X46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.06549666639255</v>
+        <v>57.06549666639256</v>
       </c>
     </row>
   </sheetData>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K11" t="n">
         <v>88.45592350710527</v>
       </c>
       <c r="L11" t="n">
-        <v>259.0235048839017</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M11" t="n">
-        <v>323.4140627900583</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N11" t="n">
         <v>175.6335705822523</v>
@@ -35430,10 +35430,10 @@
         <v>111.4207863442044</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.0437993141808</v>
+        <v>143.5832854297713</v>
       </c>
       <c r="R11" t="n">
-        <v>76.71431963902018</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>206.2603571358401</v>
       </c>
       <c r="K12" t="n">
-        <v>67.65050272581631</v>
+        <v>322.7274712451926</v>
       </c>
       <c r="L12" t="n">
         <v>121.3782391527568</v>
@@ -35509,7 +35509,7 @@
         <v>98.86983501280795</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.3936049246292</v>
+        <v>33.31663640525319</v>
       </c>
       <c r="R12" t="n">
         <v>36.78318426379676</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K13" t="n">
-        <v>10.99241518485418</v>
+        <v>177.5126906825121</v>
       </c>
       <c r="L13" t="n">
-        <v>287.1621609888207</v>
+        <v>33.70162658399589</v>
       </c>
       <c r="M13" t="n">
-        <v>101.0733805316151</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N13" t="n">
         <v>309.9717588207066</v>
@@ -35585,7 +35585,7 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P13" t="n">
-        <v>219.8271099231555</v>
+        <v>64.04764951647954</v>
       </c>
       <c r="Q13" t="n">
         <v>71.81927300259481</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K14" t="n">
         <v>88.45592350710527</v>
       </c>
       <c r="L14" t="n">
-        <v>322.9722931777316</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M14" t="n">
         <v>169.8558571078986</v>
@@ -35661,13 +35661,13 @@
         <v>175.6335705822523</v>
       </c>
       <c r="O14" t="n">
-        <v>323.4140627900583</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P14" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.0437993141808</v>
+        <v>143.5832854297709</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>206.2603571358401</v>
+        <v>9.558342004802384</v>
       </c>
       <c r="K15" t="n">
-        <v>67.65050272581631</v>
+        <v>229.3320599914248</v>
       </c>
       <c r="L15" t="n">
         <v>121.3782391527568</v>
@@ -35746,7 +35746,7 @@
         <v>98.86983501280795</v>
       </c>
       <c r="Q15" t="n">
-        <v>288.3936049246292</v>
+        <v>323.4140627900583</v>
       </c>
       <c r="R15" t="n">
         <v>36.78318426379676</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K16" t="n">
-        <v>177.5126906825121</v>
+        <v>50.70220764350986</v>
       </c>
       <c r="L16" t="n">
         <v>287.1621609888207</v>
       </c>
       <c r="M16" t="n">
-        <v>202.5887433113176</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N16" t="n">
-        <v>41.93612054334618</v>
+        <v>309.9717588207066</v>
       </c>
       <c r="O16" t="n">
         <v>279.7429178482822</v>
       </c>
       <c r="P16" t="n">
-        <v>219.8271099231555</v>
+        <v>9.216871153251361</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.81927300259481</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>300.5834431450328</v>
+        <v>36.79272347659773</v>
       </c>
       <c r="K17" t="n">
         <v>88.45592350710527</v>
@@ -35898,16 +35898,16 @@
         <v>175.6335705822523</v>
       </c>
       <c r="O17" t="n">
-        <v>157.0903257627083</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="P17" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.86896579075061</v>
+        <v>241.050268070856</v>
       </c>
       <c r="R17" t="n">
-        <v>76.71431963902018</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>206.2603571358401</v>
+        <v>9.558342004802384</v>
       </c>
       <c r="K18" t="n">
-        <v>67.65050272581631</v>
+        <v>266.1152442552219</v>
       </c>
       <c r="L18" t="n">
-        <v>207.3928797922397</v>
+        <v>121.3782391527568</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4140627900583</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N18" t="n">
         <v>167.8971874546449</v>
@@ -35983,10 +35983,10 @@
         <v>98.86983501280795</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.31663640525319</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="R18" t="n">
-        <v>36.78318426379676</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K19" t="n">
-        <v>146.2121520764869</v>
+        <v>10.99241518485418</v>
       </c>
       <c r="L19" t="n">
         <v>287.1621609888207</v>
       </c>
       <c r="M19" t="n">
-        <v>37.67291664257729</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N19" t="n">
         <v>309.9717588207066</v>
@@ -36059,10 +36059,10 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P19" t="n">
-        <v>219.8271099231555</v>
+        <v>9.216871153251361</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>39.70979245865591</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>300.5834431450328</v>
+        <v>36.7927234765977</v>
       </c>
       <c r="K20" t="n">
         <v>88.45592350710524</v>
@@ -36129,10 +36129,10 @@
         <v>133.9658244210566</v>
       </c>
       <c r="M20" t="n">
-        <v>169.8558571078985</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="N20" t="n">
-        <v>267.1730566978425</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="O20" t="n">
         <v>157.0903257627083</v>
@@ -36141,7 +36141,7 @@
         <v>111.4207863442043</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.04379931418077</v>
+        <v>106.0353072082404</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>9.55834200480237</v>
       </c>
       <c r="K21" t="n">
-        <v>67.65050272581631</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="L21" t="n">
         <v>121.3782391527567</v>
       </c>
       <c r="M21" t="n">
-        <v>226.0696154479152</v>
+        <v>154.3517349101653</v>
       </c>
       <c r="N21" t="n">
-        <v>323.4140627900583</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O21" t="n">
         <v>139.0043707195716</v>
       </c>
       <c r="P21" t="n">
-        <v>323.4140627900583</v>
+        <v>294.8852585989799</v>
       </c>
       <c r="Q21" t="n">
         <v>33.31663640525318</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>135.772719335112</v>
+        <v>10.99241518485417</v>
       </c>
       <c r="L22" t="n">
         <v>287.1621609888207</v>
@@ -36290,16 +36290,16 @@
         <v>316.1479876613125</v>
       </c>
       <c r="N22" t="n">
-        <v>41.93612054334615</v>
+        <v>309.9717588207065</v>
       </c>
       <c r="O22" t="n">
         <v>279.7429178482822</v>
       </c>
       <c r="P22" t="n">
-        <v>219.8271099231554</v>
+        <v>9.216871153251347</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.3549046428016</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>300.5834431450328</v>
       </c>
       <c r="K23" t="n">
-        <v>568.3082806870163</v>
+        <v>88.45592350710524</v>
       </c>
       <c r="L23" t="n">
         <v>133.9658244210566</v>
       </c>
       <c r="M23" t="n">
-        <v>568.3082806870163</v>
+        <v>169.8558571078985</v>
       </c>
       <c r="N23" t="n">
         <v>175.6335705822522</v>
       </c>
       <c r="O23" t="n">
-        <v>157.0903257627083</v>
+        <v>353.4987681802227</v>
       </c>
       <c r="P23" t="n">
-        <v>111.4207863442043</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.2463407449298</v>
+        <v>383.2551847436321</v>
       </c>
       <c r="R23" t="n">
         <v>76.71431963902016</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.55834200480237</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K24" t="n">
-        <v>262.64871757986</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L24" t="n">
-        <v>121.3782391527567</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="M24" t="n">
         <v>154.3517349101653</v>
@@ -36451,10 +36451,10 @@
         <v>167.8971874546449</v>
       </c>
       <c r="O24" t="n">
-        <v>568.3082806870163</v>
+        <v>176.5471148103484</v>
       </c>
       <c r="P24" t="n">
-        <v>568.3082806870163</v>
+        <v>98.86983501280793</v>
       </c>
       <c r="Q24" t="n">
         <v>361.0372052731778</v>
@@ -36521,7 +36521,7 @@
         <v>244.299825141232</v>
       </c>
       <c r="L25" t="n">
-        <v>353.9492954475406</v>
+        <v>317.83317379634</v>
       </c>
       <c r="M25" t="n">
         <v>316.1479876613125</v>
@@ -36530,10 +36530,10 @@
         <v>309.9717588207065</v>
       </c>
       <c r="O25" t="n">
-        <v>279.7429178482822</v>
+        <v>346.530052307002</v>
       </c>
       <c r="P25" t="n">
-        <v>250.4981227306747</v>
+        <v>219.8271099231554</v>
       </c>
       <c r="Q25" t="n">
         <v>138.6064074613146</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>36.7927234765977</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K26" t="n">
-        <v>88.45592350710524</v>
+        <v>284.8643659246197</v>
       </c>
       <c r="L26" t="n">
-        <v>568.3082806870163</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M26" t="n">
-        <v>568.3082806870163</v>
+        <v>169.8558571078985</v>
       </c>
       <c r="N26" t="n">
-        <v>336.6396668049562</v>
+        <v>175.6335705822522</v>
       </c>
       <c r="O26" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P26" t="n">
-        <v>111.4207863442043</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q26" t="n">
         <v>383.2551847436321</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>76.71431963902016</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>206.2603571358401</v>
+        <v>9.55834200480237</v>
       </c>
       <c r="K27" t="n">
-        <v>480.216272465439</v>
+        <v>67.65050272581631</v>
       </c>
       <c r="L27" t="n">
         <v>121.3782391527567</v>
       </c>
       <c r="M27" t="n">
-        <v>154.3517349101653</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="N27" t="n">
-        <v>550.7866319801614</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="O27" t="n">
-        <v>568.3082806870163</v>
+        <v>418.3773022060457</v>
       </c>
       <c r="P27" t="n">
         <v>98.86983501280793</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.31663640525318</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R27" t="n">
         <v>36.78318426379675</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>36.7927234765977</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K29" t="n">
-        <v>568.3082806870163</v>
+        <v>420.0137563273337</v>
       </c>
       <c r="L29" t="n">
         <v>133.9658244210566</v>
       </c>
       <c r="M29" t="n">
-        <v>169.8558571078985</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="N29" t="n">
-        <v>568.3082806870163</v>
+        <v>175.6335705822522</v>
       </c>
       <c r="O29" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P29" t="n">
-        <v>487.1917609177422</v>
+        <v>111.4207863442043</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.04379931418077</v>
+        <v>383.2551847436321</v>
       </c>
       <c r="R29" t="n">
-        <v>76.71431963902016</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>206.2603571358401</v>
       </c>
       <c r="K30" t="n">
-        <v>103.8024707793647</v>
+        <v>67.65050272581631</v>
       </c>
       <c r="L30" t="n">
         <v>568.3082806870163</v>
       </c>
       <c r="M30" t="n">
-        <v>568.3082806870163</v>
+        <v>154.3517349101653</v>
       </c>
       <c r="N30" t="n">
         <v>167.8971874546449</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0043707195716</v>
+        <v>156.4576231395589</v>
       </c>
       <c r="P30" t="n">
-        <v>98.86983501280793</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q30" t="n">
         <v>361.0372052731778</v>
       </c>
       <c r="R30" t="n">
-        <v>36.78318426379675</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>300.5834431450328</v>
       </c>
       <c r="K32" t="n">
-        <v>568.3082806870163</v>
+        <v>88.45592350710524</v>
       </c>
       <c r="L32" t="n">
         <v>133.9658244210566</v>
@@ -37080,19 +37080,19 @@
         <v>169.8558571078985</v>
       </c>
       <c r="N32" t="n">
-        <v>425.7914698016876</v>
+        <v>175.6335705822522</v>
       </c>
       <c r="O32" t="n">
-        <v>157.0903257627083</v>
+        <v>353.4987681802227</v>
       </c>
       <c r="P32" t="n">
-        <v>111.4207863442043</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q32" t="n">
         <v>383.2551847436321</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>76.71431963902016</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>480.216272465439</v>
       </c>
       <c r="L33" t="n">
-        <v>464.1331479715092</v>
+        <v>136.4125791035847</v>
       </c>
       <c r="M33" t="n">
         <v>154.3517349101653</v>
@@ -37168,7 +37168,7 @@
         <v>568.3082806870163</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.31663640525318</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R33" t="n">
         <v>36.78318426379675</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.71060885053831</v>
+        <v>84.71060885053834</v>
       </c>
       <c r="K34" t="n">
         <v>234.5781873489047</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>36.7927234765977</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K35" t="n">
         <v>88.45592350710524</v>
       </c>
       <c r="L35" t="n">
-        <v>179.7036997711996</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M35" t="n">
         <v>169.8558571078985</v>
@@ -37320,16 +37320,16 @@
         <v>175.6335705822522</v>
       </c>
       <c r="O35" t="n">
-        <v>358.4849061967225</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P35" t="n">
-        <v>358.4849061967225</v>
+        <v>111.4207863442043</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.04379931418077</v>
+        <v>205.7353356434009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.71431963902016</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.55834200480237</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K36" t="n">
         <v>67.65050272581631</v>
       </c>
       <c r="L36" t="n">
-        <v>121.3782391527567</v>
+        <v>226.9364919971103</v>
       </c>
       <c r="M36" t="n">
-        <v>160.2137474378455</v>
+        <v>154.3517349101653</v>
       </c>
       <c r="N36" t="n">
         <v>167.8971874546449</v>
@@ -37402,13 +37402,13 @@
         <v>139.0043707195716</v>
       </c>
       <c r="P36" t="n">
-        <v>358.4849061967225</v>
+        <v>98.86983501280793</v>
       </c>
       <c r="Q36" t="n">
         <v>358.4849061967225</v>
       </c>
       <c r="R36" t="n">
-        <v>36.78318426379675</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K37" t="n">
         <v>177.5126906825121</v>
@@ -37472,7 +37472,7 @@
         <v>287.1621609888207</v>
       </c>
       <c r="M37" t="n">
-        <v>73.41947488660726</v>
+        <v>45.77436270246169</v>
       </c>
       <c r="N37" t="n">
         <v>309.9717588207065</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>300.5834431450328</v>
+        <v>229.7558976985871</v>
       </c>
       <c r="K38" t="n">
         <v>88.45592350710524</v>
       </c>
       <c r="L38" t="n">
-        <v>133.9658244210566</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="M38" t="n">
         <v>169.8558571078985</v>
@@ -37563,10 +37563,10 @@
         <v>111.4207863442043</v>
       </c>
       <c r="Q38" t="n">
-        <v>282.4496552824209</v>
+        <v>52.04379931418077</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.71431963902016</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.55834200480237</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K39" t="n">
-        <v>333.1275864374109</v>
+        <v>224.4871740538767</v>
       </c>
       <c r="L39" t="n">
-        <v>121.3782391527567</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="M39" t="n">
         <v>154.3517349101653</v>
@@ -37642,7 +37642,7 @@
         <v>98.86983501280793</v>
       </c>
       <c r="Q39" t="n">
-        <v>358.4849061967225</v>
+        <v>33.31663640525318</v>
       </c>
       <c r="R39" t="n">
         <v>36.78318426379675</v>
@@ -37706,16 +37706,16 @@
         <v>177.5126906825121</v>
       </c>
       <c r="L40" t="n">
-        <v>287.1621609888207</v>
+        <v>271.1335355607466</v>
       </c>
       <c r="M40" t="n">
-        <v>45.77436270246146</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N40" t="n">
         <v>309.9717588207065</v>
       </c>
       <c r="O40" t="n">
-        <v>279.7429178482822</v>
+        <v>25.39791831750549</v>
       </c>
       <c r="P40" t="n">
         <v>219.8271099231554</v>
@@ -37782,22 +37782,22 @@
         <v>36.7927234765977</v>
       </c>
       <c r="K41" t="n">
-        <v>88.45592350710524</v>
+        <v>111.0692975155966</v>
       </c>
       <c r="L41" t="n">
         <v>358.4849061967225</v>
       </c>
       <c r="M41" t="n">
-        <v>358.4849061967225</v>
+        <v>169.8558571078985</v>
       </c>
       <c r="N41" t="n">
-        <v>256.6820153544377</v>
+        <v>175.6335705822522</v>
       </c>
       <c r="O41" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P41" t="n">
-        <v>111.4207863442043</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="Q41" t="n">
         <v>52.04379931418077</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.55834200480237</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K42" t="n">
-        <v>67.65050272581631</v>
+        <v>136.4255713063731</v>
       </c>
       <c r="L42" t="n">
         <v>121.3782391527567</v>
@@ -37870,13 +37870,13 @@
         <v>154.3517349101653</v>
       </c>
       <c r="N42" t="n">
-        <v>358.4849061967225</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O42" t="n">
         <v>139.0043707195716</v>
       </c>
       <c r="P42" t="n">
-        <v>173.759199982325</v>
+        <v>98.86983501280793</v>
       </c>
       <c r="Q42" t="n">
         <v>358.4849061967225</v>
@@ -37940,7 +37940,7 @@
         <v>27.64511218414577</v>
       </c>
       <c r="K43" t="n">
-        <v>177.5126906825121</v>
+        <v>10.99241518485417</v>
       </c>
       <c r="L43" t="n">
         <v>287.1621609888207</v>
@@ -37952,7 +37952,7 @@
         <v>309.9717588207065</v>
       </c>
       <c r="O43" t="n">
-        <v>81.18856589202588</v>
+        <v>247.7088413896841</v>
       </c>
       <c r="P43" t="n">
         <v>219.8271099231554</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>36.7927234765977</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K44" t="n">
-        <v>323.0868438902901</v>
+        <v>88.45592350710524</v>
       </c>
       <c r="L44" t="n">
         <v>133.9658244210566</v>
@@ -38028,7 +38028,7 @@
         <v>169.8558571078985</v>
       </c>
       <c r="N44" t="n">
-        <v>358.4849061967225</v>
+        <v>175.6335705822522</v>
       </c>
       <c r="O44" t="n">
         <v>157.0903257627083</v>
@@ -38037,10 +38037,10 @@
         <v>111.4207863442043</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.04379931418077</v>
+        <v>282.4496552824211</v>
       </c>
       <c r="R44" t="n">
-        <v>76.71431963902016</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>206.2603571358401</v>
+        <v>9.55834200480237</v>
       </c>
       <c r="K45" t="n">
         <v>67.65050272581631</v>
       </c>
       <c r="L45" t="n">
-        <v>121.3782391527567</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="M45" t="n">
         <v>154.3517349101653</v>
@@ -38116,7 +38116,7 @@
         <v>358.4849061967225</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.6449035933646</v>
+        <v>127.2402516804369</v>
       </c>
       <c r="R45" t="n">
         <v>36.78318426379675</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K46" t="n">
         <v>177.5126906825121</v>
       </c>
       <c r="L46" t="n">
-        <v>255.0438869840195</v>
+        <v>287.1621609888207</v>
       </c>
       <c r="M46" t="n">
-        <v>316.1479876613125</v>
+        <v>45.77436270246169</v>
       </c>
       <c r="N46" t="n">
         <v>309.9717588207065</v>
@@ -38192,7 +38192,7 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P46" t="n">
-        <v>9.216871153251347</v>
+        <v>219.8271099231554</v>
       </c>
       <c r="Q46" t="n">
         <v>71.8192730025948</v>
